--- a/Code/Results/Cases/Case_0_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_line/loading_percent.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.035702076906068</v>
+        <v>2.035702076906066</v>
       </c>
       <c r="D2">
-        <v>3.710740304125594</v>
+        <v>3.710740304125531</v>
       </c>
       <c r="E2">
-        <v>5.96324800155049</v>
+        <v>5.963248001550329</v>
       </c>
       <c r="F2">
-        <v>37.67934232259586</v>
+        <v>37.67934232259571</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>27.79770955696336</v>
+        <v>27.79770955696323</v>
       </c>
       <c r="I2">
-        <v>4.333961313747163</v>
+        <v>4.333961313747102</v>
       </c>
       <c r="J2">
-        <v>60.97976136440537</v>
+        <v>60.97976136440528</v>
       </c>
       <c r="K2">
-        <v>5.125661862431887</v>
+        <v>5.125661862431804</v>
       </c>
       <c r="L2">
-        <v>38.83024891788802</v>
+        <v>38.83024891788797</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.793443486002106</v>
+        <v>1.793443486002108</v>
       </c>
       <c r="D3">
-        <v>3.274446765269218</v>
+        <v>3.274446765269168</v>
       </c>
       <c r="E3">
-        <v>5.847914819167805</v>
+        <v>5.847914819167756</v>
       </c>
       <c r="F3">
-        <v>34.65942156020669</v>
+        <v>34.6594215602067</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>25.49074878713174</v>
+        <v>25.49074878713173</v>
       </c>
       <c r="I3">
-        <v>4.552306703110336</v>
+        <v>4.552306703110275</v>
       </c>
       <c r="J3">
-        <v>56.49043751737174</v>
+        <v>56.4904375173719</v>
       </c>
       <c r="K3">
-        <v>5.154129179144664</v>
+        <v>5.154129179144638</v>
       </c>
       <c r="L3">
-        <v>35.96293894300987</v>
+        <v>35.96293894300996</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.647434589260495</v>
+        <v>1.647434589260628</v>
       </c>
       <c r="D4">
-        <v>3.009783174488493</v>
+        <v>3.009783174488536</v>
       </c>
       <c r="E4">
-        <v>5.779166278641664</v>
+        <v>5.77916627864161</v>
       </c>
       <c r="F4">
-        <v>33.06393715048036</v>
+        <v>33.06393715048026</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>24.41106196329615</v>
+        <v>24.41106196329607</v>
       </c>
       <c r="I4">
-        <v>4.688926897438373</v>
+        <v>4.688926897438312</v>
       </c>
       <c r="J4">
-        <v>53.62228784423868</v>
+        <v>53.62228784423871</v>
       </c>
       <c r="K4">
-        <v>5.175301017619477</v>
+        <v>5.175301017619384</v>
       </c>
       <c r="L4">
-        <v>34.13233829355629</v>
+        <v>34.13233829355632</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.588370619787932</v>
+        <v>1.588370619787797</v>
       </c>
       <c r="D5">
-        <v>2.902356947791647</v>
+        <v>2.902356947791617</v>
       </c>
       <c r="E5">
-        <v>5.751639476737702</v>
+        <v>5.751639476737743</v>
       </c>
       <c r="F5">
-        <v>32.43329172865006</v>
+        <v>32.43329172865001</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>23.98815071967855</v>
+        <v>23.9881507196785</v>
       </c>
       <c r="I5">
-        <v>4.745254898613371</v>
+        <v>4.745254898613374</v>
       </c>
       <c r="J5">
-        <v>52.42372365855843</v>
+        <v>52.42372365855839</v>
       </c>
       <c r="K5">
-        <v>5.18479969533715</v>
+        <v>5.18479969533721</v>
       </c>
       <c r="L5">
-        <v>33.36762803481491</v>
+        <v>33.36762803481489</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.578582873948136</v>
+        <v>1.578582873948143</v>
       </c>
       <c r="D6">
-        <v>2.884534992877651</v>
+        <v>2.884534992877646</v>
       </c>
       <c r="E6">
-        <v>5.74709746161435</v>
+        <v>5.747097461614461</v>
       </c>
       <c r="F6">
-        <v>32.32972607219969</v>
+        <v>32.32972607219978</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>23.91893342515009</v>
+        <v>23.91893342515014</v>
       </c>
       <c r="I6">
-        <v>4.754648257875558</v>
+        <v>4.754648257875623</v>
       </c>
       <c r="J6">
-        <v>52.22286053867206</v>
+        <v>52.22286053867204</v>
       </c>
       <c r="K6">
-        <v>5.186428031852123</v>
+        <v>5.186428031852177</v>
       </c>
       <c r="L6">
-        <v>33.23948828038744</v>
+        <v>33.23948828038743</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.64663656843386</v>
+        <v>1.646636568433996</v>
       </c>
       <c r="D7">
-        <v>3.008333107788523</v>
+        <v>3.008333107788498</v>
       </c>
       <c r="E7">
-        <v>5.778793097662716</v>
+        <v>5.778793097662556</v>
       </c>
       <c r="F7">
-        <v>33.05535425362927</v>
+        <v>33.05535425362935</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>24.40529044593247</v>
+        <v>24.40529044593256</v>
       </c>
       <c r="I7">
-        <v>4.689683881119028</v>
+        <v>4.689683881118929</v>
       </c>
       <c r="J7">
-        <v>53.60624616618355</v>
+        <v>53.60624616618345</v>
       </c>
       <c r="K7">
-        <v>5.175425663185886</v>
+        <v>5.175425663185793</v>
       </c>
       <c r="L7">
-        <v>34.12210230491419</v>
+        <v>34.12210230491413</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.951434996429005</v>
+        <v>1.951434996429007</v>
       </c>
       <c r="D8">
-        <v>3.559378285119104</v>
+        <v>3.559378285119142</v>
       </c>
       <c r="E8">
-        <v>5.923030469657529</v>
+        <v>5.923030469657591</v>
       </c>
       <c r="F8">
-        <v>36.59807516716181</v>
+        <v>36.59807516716209</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>26.96486712724987</v>
+        <v>26.96486712725012</v>
       </c>
       <c r="I8">
-        <v>4.40871761856042</v>
+        <v>4.408717618560416</v>
       </c>
       <c r="J8">
-        <v>59.45391918774254</v>
+        <v>59.45391918774264</v>
       </c>
       <c r="K8">
-        <v>5.134673299707309</v>
+        <v>5.134673299707343</v>
       </c>
       <c r="L8">
-        <v>37.85541569210888</v>
+        <v>37.85541569210896</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,13 +681,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.585556778903919</v>
+        <v>2.585556778904052</v>
       </c>
       <c r="D9">
-        <v>4.688590202584328</v>
+        <v>4.688590202584324</v>
       </c>
       <c r="E9">
-        <v>6.224345986220168</v>
+        <v>6.22434598622034</v>
       </c>
       <c r="F9">
         <v>44.724080252527</v>
@@ -699,13 +699,13 @@
         <v>33.17908894942882</v>
       </c>
       <c r="I9">
-        <v>3.878955043580464</v>
+        <v>3.878955043580589</v>
       </c>
       <c r="J9">
-        <v>70.12959704788055</v>
+        <v>70.12959704788064</v>
       </c>
       <c r="K9">
-        <v>5.087247025725525</v>
+        <v>5.087247025725612</v>
       </c>
       <c r="L9">
         <v>44.68273766694627</v>
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.101972149869055</v>
+        <v>3.101972149868923</v>
       </c>
       <c r="D10">
-        <v>5.593152949890786</v>
+        <v>5.593152949890783</v>
       </c>
       <c r="E10">
-        <v>6.461453484910512</v>
+        <v>6.461453484910564</v>
       </c>
       <c r="F10">
-        <v>51.23871378340036</v>
+        <v>51.23871378340048</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>38.11021151089169</v>
+        <v>38.11021151089182</v>
       </c>
       <c r="I10">
-        <v>3.991513793099231</v>
+        <v>3.991513793099217</v>
       </c>
       <c r="J10">
-        <v>77.66656134314196</v>
+        <v>77.66656134314209</v>
       </c>
       <c r="K10">
-        <v>5.077920685977329</v>
+        <v>5.077920685977405</v>
       </c>
       <c r="L10">
-        <v>49.51367993586317</v>
+        <v>49.51367993586324</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.357925036601898</v>
+        <v>3.357925036601497</v>
       </c>
       <c r="D11">
-        <v>6.037165211789568</v>
+        <v>6.037165211789321</v>
       </c>
       <c r="E11">
-        <v>6.574459706682426</v>
+        <v>6.574459706682384</v>
       </c>
       <c r="F11">
-        <v>54.41374891308478</v>
+        <v>54.41374891308433</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>40.50355275235481</v>
+        <v>40.50355275235443</v>
       </c>
       <c r="I11">
-        <v>4.212047468761119</v>
+        <v>4.212047468761086</v>
       </c>
       <c r="J11">
-        <v>81.08889856774272</v>
+        <v>81.08889856774255</v>
       </c>
       <c r="K11">
-        <v>5.081033639513437</v>
+        <v>5.081033639513414</v>
       </c>
       <c r="L11">
-        <v>51.71079893609336</v>
+        <v>51.71079893609322</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.459200290577744</v>
+        <v>3.45920029057761</v>
       </c>
       <c r="D12">
-        <v>6.212126886717185</v>
+        <v>6.212126886717619</v>
       </c>
       <c r="E12">
-        <v>6.618227290564739</v>
+        <v>6.618227290564864</v>
       </c>
       <c r="F12">
-        <v>55.65927019214931</v>
+        <v>55.65927019214995</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>41.44107836129115</v>
+        <v>41.44107836129174</v>
       </c>
       <c r="I12">
-        <v>4.297497984614021</v>
+        <v>4.29749798461405</v>
       </c>
       <c r="J12">
-        <v>82.39168382453576</v>
+        <v>82.39168382453607</v>
       </c>
       <c r="K12">
-        <v>5.08348632597317</v>
+        <v>5.083486325973205</v>
       </c>
       <c r="L12">
-        <v>52.54781621683507</v>
+        <v>52.54781621683527</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -836,31 +836,31 @@
         <v>3.437167424274273</v>
       </c>
       <c r="D13">
-        <v>6.174097127626069</v>
+        <v>6.174097127626011</v>
       </c>
       <c r="E13">
-        <v>6.608752829288972</v>
+        <v>6.608752829288958</v>
       </c>
       <c r="F13">
-        <v>55.38883166566523</v>
+        <v>55.38883166566519</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>41.23757300342989</v>
+        <v>41.23757300342983</v>
       </c>
       <c r="I13">
-        <v>4.27899299887339</v>
+        <v>4.27899299887338</v>
       </c>
       <c r="J13">
-        <v>82.11064195386555</v>
+        <v>82.11064195386551</v>
       </c>
       <c r="K13">
-        <v>5.082897168057823</v>
+        <v>5.082897168057842</v>
       </c>
       <c r="L13">
-        <v>52.36722074819572</v>
+        <v>52.36722074819568</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.366160001809243</v>
+        <v>3.366160001809384</v>
       </c>
       <c r="D14">
-        <v>6.051406793682292</v>
+        <v>6.051406793682282</v>
       </c>
       <c r="E14">
-        <v>6.578039209863859</v>
+        <v>6.578039209863945</v>
       </c>
       <c r="F14">
-        <v>54.51525740891441</v>
+        <v>54.51525740891492</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>40.5799862358149</v>
+        <v>40.57998623581523</v>
       </c>
       <c r="I14">
-        <v>4.219033234116649</v>
+        <v>4.219033234116558</v>
       </c>
       <c r="J14">
-        <v>81.19588638705227</v>
+        <v>81.19588638705234</v>
       </c>
       <c r="K14">
-        <v>5.081208383845345</v>
+        <v>5.081208383845341</v>
       </c>
       <c r="L14">
-        <v>51.77952313897991</v>
+        <v>51.77952313897995</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.323282252967282</v>
+        <v>3.323282252967418</v>
       </c>
       <c r="D15">
-        <v>5.977224450598125</v>
+        <v>5.977224450598146</v>
       </c>
       <c r="E15">
-        <v>6.559362013409503</v>
+        <v>6.55936201340951</v>
       </c>
       <c r="F15">
-        <v>53.9862775696171</v>
+        <v>53.98627756961719</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>40.1816238148679</v>
+        <v>40.18162381486795</v>
       </c>
       <c r="I15">
-        <v>4.182586277413067</v>
+        <v>4.182586277413061</v>
       </c>
       <c r="J15">
-        <v>80.63674652245729</v>
+        <v>80.63674652245733</v>
       </c>
       <c r="K15">
-        <v>5.08034753850643</v>
+        <v>5.080347538506428</v>
       </c>
       <c r="L15">
-        <v>51.42038319040043</v>
+        <v>51.42038319040044</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.085768978120979</v>
+        <v>3.085768978120846</v>
       </c>
       <c r="D16">
-        <v>5.564953097611389</v>
+        <v>5.564953097611214</v>
       </c>
       <c r="E16">
-        <v>6.454189506822761</v>
+        <v>6.454189506822661</v>
       </c>
       <c r="F16">
-        <v>51.03643870641839</v>
+        <v>51.03643870641795</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>37.9575498997812</v>
+        <v>37.95754989978084</v>
       </c>
       <c r="I16">
-        <v>3.97732529691664</v>
+        <v>3.97732529691666</v>
       </c>
       <c r="J16">
-        <v>77.44336699240414</v>
+        <v>77.44336699240388</v>
       </c>
       <c r="K16">
-        <v>5.077882144777101</v>
+        <v>5.077882144777004</v>
       </c>
       <c r="L16">
-        <v>49.3704713733687</v>
+        <v>49.37047137336851</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,31 +985,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.946227631310382</v>
+        <v>2.946227631310517</v>
       </c>
       <c r="D17">
-        <v>5.321626898224622</v>
+        <v>5.321626898224756</v>
       </c>
       <c r="E17">
-        <v>6.391123613841923</v>
+        <v>6.391123613841976</v>
       </c>
       <c r="F17">
-        <v>49.28840104962016</v>
+        <v>49.28840104962048</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>36.6372113550785</v>
+        <v>36.63721135507875</v>
       </c>
       <c r="I17">
-        <v>3.853969266860602</v>
+        <v>3.853969266860584</v>
       </c>
       <c r="J17">
-        <v>75.48730059688673</v>
+        <v>75.48730059688674</v>
       </c>
       <c r="K17">
-        <v>5.078386460775686</v>
+        <v>5.078386460775692</v>
       </c>
       <c r="L17">
         <v>48.11580148813687</v>
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.867843120219657</v>
+        <v>2.867843120219523</v>
       </c>
       <c r="D18">
-        <v>5.184565254811044</v>
+        <v>5.18456525481083</v>
       </c>
       <c r="E18">
-        <v>6.355315430356451</v>
+        <v>6.35531543035639</v>
       </c>
       <c r="F18">
-        <v>48.30186818279623</v>
+        <v>48.30186818279613</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>35.89115875290065</v>
+        <v>35.89115875290054</v>
       </c>
       <c r="I18">
-        <v>3.783738434053427</v>
+        <v>3.783738434053484</v>
       </c>
       <c r="J18">
         <v>74.36103540942605</v>
       </c>
       <c r="K18">
-        <v>5.079352690700826</v>
+        <v>5.07935269070081</v>
       </c>
       <c r="L18">
-        <v>47.39370740789426</v>
+        <v>47.39370740789425</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.84159389517559</v>
+        <v>2.841593895175455</v>
       </c>
       <c r="D19">
-        <v>5.138604027304397</v>
+        <v>5.138604027304453</v>
       </c>
       <c r="E19">
-        <v>6.343265820175535</v>
+        <v>6.343265820175484</v>
       </c>
       <c r="F19">
-        <v>47.97078760441201</v>
+        <v>47.97078760441206</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>35.64062644016612</v>
+        <v>35.64062644016619</v>
       </c>
       <c r="I19">
-        <v>3.760064820828593</v>
+        <v>3.76006482082864</v>
       </c>
       <c r="J19">
-        <v>73.97931018199493</v>
+        <v>73.97931018199496</v>
       </c>
       <c r="K19">
-        <v>5.079790478710777</v>
+        <v>5.079790478710707</v>
       </c>
       <c r="L19">
-        <v>47.14901965396272</v>
+        <v>47.14901965396275</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.960880047843681</v>
+        <v>2.960880047843683</v>
       </c>
       <c r="D20">
-        <v>5.347217270391076</v>
+        <v>5.347217270391075</v>
       </c>
       <c r="E20">
-        <v>6.39778751971957</v>
+        <v>6.397787519719557</v>
       </c>
       <c r="F20">
-        <v>49.47245259192414</v>
+        <v>49.47245259192427</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>36.77632334008397</v>
+        <v>36.77632334008407</v>
       </c>
       <c r="I20">
-        <v>3.867021661169417</v>
+        <v>3.867021661169388</v>
       </c>
       <c r="J20">
-        <v>75.69560400152669</v>
+        <v>75.69560400152676</v>
       </c>
       <c r="K20">
-        <v>5.078261451840849</v>
+        <v>5.078261451840866</v>
       </c>
       <c r="L20">
-        <v>48.24937852098078</v>
+        <v>48.24937852098083</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.386884862641387</v>
+        <v>3.386884862641519</v>
       </c>
       <c r="D21">
-        <v>6.087236644285901</v>
+        <v>6.087236644285978</v>
       </c>
       <c r="E21">
-        <v>6.587031658203661</v>
+        <v>6.587031658203686</v>
       </c>
       <c r="F21">
-        <v>54.77054197945307</v>
+        <v>54.77054197945325</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>40.77218841605752</v>
+        <v>40.77218841605765</v>
       </c>
       <c r="I21">
-        <v>4.23658467515544</v>
+        <v>4.236584675155449</v>
       </c>
       <c r="J21">
-        <v>81.46430863723853</v>
+        <v>81.46430863723867</v>
       </c>
       <c r="K21">
-        <v>5.081667747346294</v>
+        <v>5.081667747346252</v>
       </c>
       <c r="L21">
-        <v>51.95195628067907</v>
+        <v>51.95195628067918</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.691812041925206</v>
+        <v>3.691812041925071</v>
       </c>
       <c r="D22">
         <v>6.61250843155772</v>
       </c>
       <c r="E22">
-        <v>6.716600171196784</v>
+        <v>6.716600171196728</v>
       </c>
       <c r="F22">
-        <v>58.49620763660348</v>
+        <v>58.4962076366029</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>43.5740980504472</v>
+        <v>43.57409805044674</v>
       </c>
       <c r="I22">
-        <v>4.490037990691107</v>
+        <v>4.490037990691158</v>
       </c>
       <c r="J22">
-        <v>85.28075065335834</v>
+        <v>85.28075065335827</v>
       </c>
       <c r="K22">
-        <v>5.113723869203069</v>
+        <v>5.113723869203138</v>
       </c>
       <c r="L22">
-        <v>54.40533083633908</v>
+        <v>54.40533083633898</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,31 +1213,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.526020323793735</v>
+        <v>3.526020323793869</v>
       </c>
       <c r="D23">
-        <v>6.327347810457716</v>
+        <v>6.327347810457712</v>
       </c>
       <c r="E23">
-        <v>6.646797348070804</v>
+        <v>6.646797348070792</v>
       </c>
       <c r="F23">
-        <v>56.47762562061496</v>
+        <v>56.47762562061479</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>42.05670370579993</v>
+        <v>42.0567037057998</v>
       </c>
       <c r="I23">
-        <v>4.353332643490836</v>
+        <v>4.35333264349083</v>
       </c>
       <c r="J23">
-        <v>83.2360515745971</v>
+        <v>83.23605157459704</v>
       </c>
       <c r="K23">
-        <v>5.08545649241645</v>
+        <v>5.085456492416392</v>
       </c>
       <c r="L23">
         <v>53.09050486920756</v>
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.954250050884788</v>
+        <v>2.954250050884789</v>
       </c>
       <c r="D24">
-        <v>5.335639195651106</v>
+        <v>5.335639195650975</v>
       </c>
       <c r="E24">
-        <v>6.394773384579847</v>
+        <v>6.394773384579897</v>
       </c>
       <c r="F24">
-        <v>49.38918633264828</v>
+        <v>49.38918633264787</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>36.71339088987311</v>
+        <v>36.7133908898728</v>
       </c>
       <c r="I24">
-        <v>3.861118581959099</v>
+        <v>3.861118581959085</v>
       </c>
       <c r="J24">
-        <v>75.60143584739399</v>
+        <v>75.60143584739387</v>
       </c>
       <c r="K24">
-        <v>5.078315877077606</v>
+        <v>5.078315877077634</v>
       </c>
       <c r="L24">
-        <v>48.18899108515341</v>
+        <v>48.18899108515333</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.407700922167588</v>
+        <v>2.407700922167593</v>
       </c>
       <c r="D25">
-        <v>4.374077448589727</v>
+        <v>4.374077448589831</v>
       </c>
       <c r="E25">
-        <v>6.140493499020821</v>
+        <v>6.140493499020887</v>
       </c>
       <c r="F25">
-        <v>42.452872555762</v>
+        <v>42.45287255576222</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>31.45115912479983</v>
+        <v>31.45115912479998</v>
       </c>
       <c r="I25">
-        <v>4.019698361293536</v>
+        <v>4.019698361293529</v>
       </c>
       <c r="J25">
-        <v>67.31100902810931</v>
+        <v>67.3110090281093</v>
       </c>
       <c r="K25">
-        <v>5.096090770267282</v>
+        <v>5.096090770267296</v>
       </c>
       <c r="L25">
         <v>42.87856981659367</v>

--- a/Code/Results/Cases/Case_0_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_line/loading_percent.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.035702076906066</v>
+        <v>2.035702076906068</v>
       </c>
       <c r="D2">
-        <v>3.710740304125531</v>
+        <v>3.710740304125594</v>
       </c>
       <c r="E2">
-        <v>5.963248001550329</v>
+        <v>5.96324800155049</v>
       </c>
       <c r="F2">
-        <v>37.67934232259571</v>
+        <v>37.67934232259586</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>27.79770955696323</v>
+        <v>27.79770955696336</v>
       </c>
       <c r="I2">
-        <v>4.333961313747102</v>
+        <v>4.333961313747163</v>
       </c>
       <c r="J2">
-        <v>60.97976136440528</v>
+        <v>60.97976136440537</v>
       </c>
       <c r="K2">
-        <v>5.125661862431804</v>
+        <v>5.125661862431887</v>
       </c>
       <c r="L2">
-        <v>38.83024891788797</v>
+        <v>38.83024891788802</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.793443486002108</v>
+        <v>1.793443486002106</v>
       </c>
       <c r="D3">
-        <v>3.274446765269168</v>
+        <v>3.274446765269218</v>
       </c>
       <c r="E3">
-        <v>5.847914819167756</v>
+        <v>5.847914819167805</v>
       </c>
       <c r="F3">
-        <v>34.6594215602067</v>
+        <v>34.65942156020669</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>25.49074878713173</v>
+        <v>25.49074878713174</v>
       </c>
       <c r="I3">
-        <v>4.552306703110275</v>
+        <v>4.552306703110336</v>
       </c>
       <c r="J3">
-        <v>56.4904375173719</v>
+        <v>56.49043751737174</v>
       </c>
       <c r="K3">
-        <v>5.154129179144638</v>
+        <v>5.154129179144664</v>
       </c>
       <c r="L3">
-        <v>35.96293894300996</v>
+        <v>35.96293894300987</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.647434589260628</v>
+        <v>1.647434589260495</v>
       </c>
       <c r="D4">
-        <v>3.009783174488536</v>
+        <v>3.009783174488493</v>
       </c>
       <c r="E4">
-        <v>5.77916627864161</v>
+        <v>5.779166278641664</v>
       </c>
       <c r="F4">
-        <v>33.06393715048026</v>
+        <v>33.06393715048036</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>24.41106196329607</v>
+        <v>24.41106196329615</v>
       </c>
       <c r="I4">
-        <v>4.688926897438312</v>
+        <v>4.688926897438373</v>
       </c>
       <c r="J4">
-        <v>53.62228784423871</v>
+        <v>53.62228784423868</v>
       </c>
       <c r="K4">
-        <v>5.175301017619384</v>
+        <v>5.175301017619477</v>
       </c>
       <c r="L4">
-        <v>34.13233829355632</v>
+        <v>34.13233829355629</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.588370619787797</v>
+        <v>1.588370619787932</v>
       </c>
       <c r="D5">
-        <v>2.902356947791617</v>
+        <v>2.902356947791647</v>
       </c>
       <c r="E5">
-        <v>5.751639476737743</v>
+        <v>5.751639476737702</v>
       </c>
       <c r="F5">
-        <v>32.43329172865001</v>
+        <v>32.43329172865006</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>23.9881507196785</v>
+        <v>23.98815071967855</v>
       </c>
       <c r="I5">
-        <v>4.745254898613374</v>
+        <v>4.745254898613371</v>
       </c>
       <c r="J5">
-        <v>52.42372365855839</v>
+        <v>52.42372365855843</v>
       </c>
       <c r="K5">
-        <v>5.18479969533721</v>
+        <v>5.18479969533715</v>
       </c>
       <c r="L5">
-        <v>33.36762803481489</v>
+        <v>33.36762803481491</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.578582873948143</v>
+        <v>1.578582873948136</v>
       </c>
       <c r="D6">
-        <v>2.884534992877646</v>
+        <v>2.884534992877651</v>
       </c>
       <c r="E6">
-        <v>5.747097461614461</v>
+        <v>5.74709746161435</v>
       </c>
       <c r="F6">
-        <v>32.32972607219978</v>
+        <v>32.32972607219969</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>23.91893342515014</v>
+        <v>23.91893342515009</v>
       </c>
       <c r="I6">
-        <v>4.754648257875623</v>
+        <v>4.754648257875558</v>
       </c>
       <c r="J6">
-        <v>52.22286053867204</v>
+        <v>52.22286053867206</v>
       </c>
       <c r="K6">
-        <v>5.186428031852177</v>
+        <v>5.186428031852123</v>
       </c>
       <c r="L6">
-        <v>33.23948828038743</v>
+        <v>33.23948828038744</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.646636568433996</v>
+        <v>1.64663656843386</v>
       </c>
       <c r="D7">
-        <v>3.008333107788498</v>
+        <v>3.008333107788523</v>
       </c>
       <c r="E7">
-        <v>5.778793097662556</v>
+        <v>5.778793097662716</v>
       </c>
       <c r="F7">
-        <v>33.05535425362935</v>
+        <v>33.05535425362927</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>24.40529044593256</v>
+        <v>24.40529044593247</v>
       </c>
       <c r="I7">
-        <v>4.689683881118929</v>
+        <v>4.689683881119028</v>
       </c>
       <c r="J7">
-        <v>53.60624616618345</v>
+        <v>53.60624616618355</v>
       </c>
       <c r="K7">
-        <v>5.175425663185793</v>
+        <v>5.175425663185886</v>
       </c>
       <c r="L7">
-        <v>34.12210230491413</v>
+        <v>34.12210230491419</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.951434996429007</v>
+        <v>1.951434996429005</v>
       </c>
       <c r="D8">
-        <v>3.559378285119142</v>
+        <v>3.559378285119104</v>
       </c>
       <c r="E8">
-        <v>5.923030469657591</v>
+        <v>5.923030469657529</v>
       </c>
       <c r="F8">
-        <v>36.59807516716209</v>
+        <v>36.59807516716181</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>26.96486712725012</v>
+        <v>26.96486712724987</v>
       </c>
       <c r="I8">
-        <v>4.408717618560416</v>
+        <v>4.40871761856042</v>
       </c>
       <c r="J8">
-        <v>59.45391918774264</v>
+        <v>59.45391918774254</v>
       </c>
       <c r="K8">
-        <v>5.134673299707343</v>
+        <v>5.134673299707309</v>
       </c>
       <c r="L8">
-        <v>37.85541569210896</v>
+        <v>37.85541569210888</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,13 +681,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.585556778904052</v>
+        <v>2.585556778903919</v>
       </c>
       <c r="D9">
-        <v>4.688590202584324</v>
+        <v>4.688590202584328</v>
       </c>
       <c r="E9">
-        <v>6.22434598622034</v>
+        <v>6.224345986220168</v>
       </c>
       <c r="F9">
         <v>44.724080252527</v>
@@ -699,13 +699,13 @@
         <v>33.17908894942882</v>
       </c>
       <c r="I9">
-        <v>3.878955043580589</v>
+        <v>3.878955043580464</v>
       </c>
       <c r="J9">
-        <v>70.12959704788064</v>
+        <v>70.12959704788055</v>
       </c>
       <c r="K9">
-        <v>5.087247025725612</v>
+        <v>5.087247025725525</v>
       </c>
       <c r="L9">
         <v>44.68273766694627</v>
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.101972149868923</v>
+        <v>3.101972149869055</v>
       </c>
       <c r="D10">
-        <v>5.593152949890783</v>
+        <v>5.593152949890786</v>
       </c>
       <c r="E10">
-        <v>6.461453484910564</v>
+        <v>6.461453484910512</v>
       </c>
       <c r="F10">
-        <v>51.23871378340048</v>
+        <v>51.23871378340036</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>38.11021151089182</v>
+        <v>38.11021151089169</v>
       </c>
       <c r="I10">
-        <v>3.991513793099217</v>
+        <v>3.991513793099231</v>
       </c>
       <c r="J10">
-        <v>77.66656134314209</v>
+        <v>77.66656134314196</v>
       </c>
       <c r="K10">
-        <v>5.077920685977405</v>
+        <v>5.077920685977329</v>
       </c>
       <c r="L10">
-        <v>49.51367993586324</v>
+        <v>49.51367993586317</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.357925036601497</v>
+        <v>3.357925036601898</v>
       </c>
       <c r="D11">
-        <v>6.037165211789321</v>
+        <v>6.037165211789568</v>
       </c>
       <c r="E11">
-        <v>6.574459706682384</v>
+        <v>6.574459706682426</v>
       </c>
       <c r="F11">
-        <v>54.41374891308433</v>
+        <v>54.41374891308478</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>40.50355275235443</v>
+        <v>40.50355275235481</v>
       </c>
       <c r="I11">
-        <v>4.212047468761086</v>
+        <v>4.212047468761119</v>
       </c>
       <c r="J11">
-        <v>81.08889856774255</v>
+        <v>81.08889856774272</v>
       </c>
       <c r="K11">
-        <v>5.081033639513414</v>
+        <v>5.081033639513437</v>
       </c>
       <c r="L11">
-        <v>51.71079893609322</v>
+        <v>51.71079893609336</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.45920029057761</v>
+        <v>3.459200290577744</v>
       </c>
       <c r="D12">
-        <v>6.212126886717619</v>
+        <v>6.212126886717185</v>
       </c>
       <c r="E12">
-        <v>6.618227290564864</v>
+        <v>6.618227290564739</v>
       </c>
       <c r="F12">
-        <v>55.65927019214995</v>
+        <v>55.65927019214931</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>41.44107836129174</v>
+        <v>41.44107836129115</v>
       </c>
       <c r="I12">
-        <v>4.29749798461405</v>
+        <v>4.297497984614021</v>
       </c>
       <c r="J12">
-        <v>82.39168382453607</v>
+        <v>82.39168382453576</v>
       </c>
       <c r="K12">
-        <v>5.083486325973205</v>
+        <v>5.08348632597317</v>
       </c>
       <c r="L12">
-        <v>52.54781621683527</v>
+        <v>52.54781621683507</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -836,31 +836,31 @@
         <v>3.437167424274273</v>
       </c>
       <c r="D13">
-        <v>6.174097127626011</v>
+        <v>6.174097127626069</v>
       </c>
       <c r="E13">
-        <v>6.608752829288958</v>
+        <v>6.608752829288972</v>
       </c>
       <c r="F13">
-        <v>55.38883166566519</v>
+        <v>55.38883166566523</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>41.23757300342983</v>
+        <v>41.23757300342989</v>
       </c>
       <c r="I13">
-        <v>4.27899299887338</v>
+        <v>4.27899299887339</v>
       </c>
       <c r="J13">
-        <v>82.11064195386551</v>
+        <v>82.11064195386555</v>
       </c>
       <c r="K13">
-        <v>5.082897168057842</v>
+        <v>5.082897168057823</v>
       </c>
       <c r="L13">
-        <v>52.36722074819568</v>
+        <v>52.36722074819572</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.366160001809384</v>
+        <v>3.366160001809243</v>
       </c>
       <c r="D14">
-        <v>6.051406793682282</v>
+        <v>6.051406793682292</v>
       </c>
       <c r="E14">
-        <v>6.578039209863945</v>
+        <v>6.578039209863859</v>
       </c>
       <c r="F14">
-        <v>54.51525740891492</v>
+        <v>54.51525740891441</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>40.57998623581523</v>
+        <v>40.5799862358149</v>
       </c>
       <c r="I14">
-        <v>4.219033234116558</v>
+        <v>4.219033234116649</v>
       </c>
       <c r="J14">
-        <v>81.19588638705234</v>
+        <v>81.19588638705227</v>
       </c>
       <c r="K14">
-        <v>5.081208383845341</v>
+        <v>5.081208383845345</v>
       </c>
       <c r="L14">
-        <v>51.77952313897995</v>
+        <v>51.77952313897991</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.323282252967418</v>
+        <v>3.323282252967282</v>
       </c>
       <c r="D15">
-        <v>5.977224450598146</v>
+        <v>5.977224450598125</v>
       </c>
       <c r="E15">
-        <v>6.55936201340951</v>
+        <v>6.559362013409503</v>
       </c>
       <c r="F15">
-        <v>53.98627756961719</v>
+        <v>53.9862775696171</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>40.18162381486795</v>
+        <v>40.1816238148679</v>
       </c>
       <c r="I15">
-        <v>4.182586277413061</v>
+        <v>4.182586277413067</v>
       </c>
       <c r="J15">
-        <v>80.63674652245733</v>
+        <v>80.63674652245729</v>
       </c>
       <c r="K15">
-        <v>5.080347538506428</v>
+        <v>5.08034753850643</v>
       </c>
       <c r="L15">
-        <v>51.42038319040044</v>
+        <v>51.42038319040043</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.085768978120846</v>
+        <v>3.085768978120979</v>
       </c>
       <c r="D16">
-        <v>5.564953097611214</v>
+        <v>5.564953097611389</v>
       </c>
       <c r="E16">
-        <v>6.454189506822661</v>
+        <v>6.454189506822761</v>
       </c>
       <c r="F16">
-        <v>51.03643870641795</v>
+        <v>51.03643870641839</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>37.95754989978084</v>
+        <v>37.9575498997812</v>
       </c>
       <c r="I16">
-        <v>3.97732529691666</v>
+        <v>3.97732529691664</v>
       </c>
       <c r="J16">
-        <v>77.44336699240388</v>
+        <v>77.44336699240414</v>
       </c>
       <c r="K16">
-        <v>5.077882144777004</v>
+        <v>5.077882144777101</v>
       </c>
       <c r="L16">
-        <v>49.37047137336851</v>
+        <v>49.3704713733687</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,31 +985,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.946227631310517</v>
+        <v>2.946227631310382</v>
       </c>
       <c r="D17">
-        <v>5.321626898224756</v>
+        <v>5.321626898224622</v>
       </c>
       <c r="E17">
-        <v>6.391123613841976</v>
+        <v>6.391123613841923</v>
       </c>
       <c r="F17">
-        <v>49.28840104962048</v>
+        <v>49.28840104962016</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>36.63721135507875</v>
+        <v>36.6372113550785</v>
       </c>
       <c r="I17">
-        <v>3.853969266860584</v>
+        <v>3.853969266860602</v>
       </c>
       <c r="J17">
-        <v>75.48730059688674</v>
+        <v>75.48730059688673</v>
       </c>
       <c r="K17">
-        <v>5.078386460775692</v>
+        <v>5.078386460775686</v>
       </c>
       <c r="L17">
         <v>48.11580148813687</v>
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.867843120219523</v>
+        <v>2.867843120219657</v>
       </c>
       <c r="D18">
-        <v>5.18456525481083</v>
+        <v>5.184565254811044</v>
       </c>
       <c r="E18">
-        <v>6.35531543035639</v>
+        <v>6.355315430356451</v>
       </c>
       <c r="F18">
-        <v>48.30186818279613</v>
+        <v>48.30186818279623</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>35.89115875290054</v>
+        <v>35.89115875290065</v>
       </c>
       <c r="I18">
-        <v>3.783738434053484</v>
+        <v>3.783738434053427</v>
       </c>
       <c r="J18">
         <v>74.36103540942605</v>
       </c>
       <c r="K18">
-        <v>5.07935269070081</v>
+        <v>5.079352690700826</v>
       </c>
       <c r="L18">
-        <v>47.39370740789425</v>
+        <v>47.39370740789426</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.841593895175455</v>
+        <v>2.84159389517559</v>
       </c>
       <c r="D19">
-        <v>5.138604027304453</v>
+        <v>5.138604027304397</v>
       </c>
       <c r="E19">
-        <v>6.343265820175484</v>
+        <v>6.343265820175535</v>
       </c>
       <c r="F19">
-        <v>47.97078760441206</v>
+        <v>47.97078760441201</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>35.64062644016619</v>
+        <v>35.64062644016612</v>
       </c>
       <c r="I19">
-        <v>3.76006482082864</v>
+        <v>3.760064820828593</v>
       </c>
       <c r="J19">
-        <v>73.97931018199496</v>
+        <v>73.97931018199493</v>
       </c>
       <c r="K19">
-        <v>5.079790478710707</v>
+        <v>5.079790478710777</v>
       </c>
       <c r="L19">
-        <v>47.14901965396275</v>
+        <v>47.14901965396272</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.960880047843683</v>
+        <v>2.960880047843681</v>
       </c>
       <c r="D20">
-        <v>5.347217270391075</v>
+        <v>5.347217270391076</v>
       </c>
       <c r="E20">
-        <v>6.397787519719557</v>
+        <v>6.39778751971957</v>
       </c>
       <c r="F20">
-        <v>49.47245259192427</v>
+        <v>49.47245259192414</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>36.77632334008407</v>
+        <v>36.77632334008397</v>
       </c>
       <c r="I20">
-        <v>3.867021661169388</v>
+        <v>3.867021661169417</v>
       </c>
       <c r="J20">
-        <v>75.69560400152676</v>
+        <v>75.69560400152669</v>
       </c>
       <c r="K20">
-        <v>5.078261451840866</v>
+        <v>5.078261451840849</v>
       </c>
       <c r="L20">
-        <v>48.24937852098083</v>
+        <v>48.24937852098078</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.386884862641519</v>
+        <v>3.386884862641387</v>
       </c>
       <c r="D21">
-        <v>6.087236644285978</v>
+        <v>6.087236644285901</v>
       </c>
       <c r="E21">
-        <v>6.587031658203686</v>
+        <v>6.587031658203661</v>
       </c>
       <c r="F21">
-        <v>54.77054197945325</v>
+        <v>54.77054197945307</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>40.77218841605765</v>
+        <v>40.77218841605752</v>
       </c>
       <c r="I21">
-        <v>4.236584675155449</v>
+        <v>4.23658467515544</v>
       </c>
       <c r="J21">
-        <v>81.46430863723867</v>
+        <v>81.46430863723853</v>
       </c>
       <c r="K21">
-        <v>5.081667747346252</v>
+        <v>5.081667747346294</v>
       </c>
       <c r="L21">
-        <v>51.95195628067918</v>
+        <v>51.95195628067907</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.691812041925071</v>
+        <v>3.691812041925206</v>
       </c>
       <c r="D22">
         <v>6.61250843155772</v>
       </c>
       <c r="E22">
-        <v>6.716600171196728</v>
+        <v>6.716600171196784</v>
       </c>
       <c r="F22">
-        <v>58.4962076366029</v>
+        <v>58.49620763660348</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>43.57409805044674</v>
+        <v>43.5740980504472</v>
       </c>
       <c r="I22">
-        <v>4.490037990691158</v>
+        <v>4.490037990691107</v>
       </c>
       <c r="J22">
-        <v>85.28075065335827</v>
+        <v>85.28075065335834</v>
       </c>
       <c r="K22">
-        <v>5.113723869203138</v>
+        <v>5.113723869203069</v>
       </c>
       <c r="L22">
-        <v>54.40533083633898</v>
+        <v>54.40533083633908</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,31 +1213,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.526020323793869</v>
+        <v>3.526020323793735</v>
       </c>
       <c r="D23">
-        <v>6.327347810457712</v>
+        <v>6.327347810457716</v>
       </c>
       <c r="E23">
-        <v>6.646797348070792</v>
+        <v>6.646797348070804</v>
       </c>
       <c r="F23">
-        <v>56.47762562061479</v>
+        <v>56.47762562061496</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>42.0567037057998</v>
+        <v>42.05670370579993</v>
       </c>
       <c r="I23">
-        <v>4.35333264349083</v>
+        <v>4.353332643490836</v>
       </c>
       <c r="J23">
-        <v>83.23605157459704</v>
+        <v>83.2360515745971</v>
       </c>
       <c r="K23">
-        <v>5.085456492416392</v>
+        <v>5.08545649241645</v>
       </c>
       <c r="L23">
         <v>53.09050486920756</v>
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.954250050884789</v>
+        <v>2.954250050884788</v>
       </c>
       <c r="D24">
-        <v>5.335639195650975</v>
+        <v>5.335639195651106</v>
       </c>
       <c r="E24">
-        <v>6.394773384579897</v>
+        <v>6.394773384579847</v>
       </c>
       <c r="F24">
-        <v>49.38918633264787</v>
+        <v>49.38918633264828</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>36.7133908898728</v>
+        <v>36.71339088987311</v>
       </c>
       <c r="I24">
-        <v>3.861118581959085</v>
+        <v>3.861118581959099</v>
       </c>
       <c r="J24">
-        <v>75.60143584739387</v>
+        <v>75.60143584739399</v>
       </c>
       <c r="K24">
-        <v>5.078315877077634</v>
+        <v>5.078315877077606</v>
       </c>
       <c r="L24">
-        <v>48.18899108515333</v>
+        <v>48.18899108515341</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.407700922167593</v>
+        <v>2.407700922167588</v>
       </c>
       <c r="D25">
-        <v>4.374077448589831</v>
+        <v>4.374077448589727</v>
       </c>
       <c r="E25">
-        <v>6.140493499020887</v>
+        <v>6.140493499020821</v>
       </c>
       <c r="F25">
-        <v>42.45287255576222</v>
+        <v>42.452872555762</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>31.45115912479998</v>
+        <v>31.45115912479983</v>
       </c>
       <c r="I25">
-        <v>4.019698361293529</v>
+        <v>4.019698361293536</v>
       </c>
       <c r="J25">
-        <v>67.3110090281093</v>
+        <v>67.31100902810931</v>
       </c>
       <c r="K25">
-        <v>5.096090770267296</v>
+        <v>5.096090770267282</v>
       </c>
       <c r="L25">
         <v>42.87856981659367</v>

--- a/Code/Results/Cases/Case_0_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.035702076906068</v>
+        <v>1.879896971143314</v>
       </c>
       <c r="D2">
-        <v>3.710740304125594</v>
+        <v>3.565200510247067</v>
       </c>
       <c r="E2">
-        <v>5.96324800155049</v>
+        <v>5.859208552799057</v>
       </c>
       <c r="F2">
-        <v>37.67934232259586</v>
+        <v>37.51407808738744</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.981391261154318</v>
       </c>
       <c r="H2">
-        <v>27.79770955696336</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4.333961313747163</v>
+        <v>27.63663727142669</v>
       </c>
       <c r="J2">
-        <v>60.97976136440537</v>
+        <v>4.323945433114959</v>
       </c>
       <c r="K2">
-        <v>5.125661862431887</v>
+        <v>60.79105518020664</v>
       </c>
       <c r="L2">
-        <v>38.83024891788802</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>5.078814404892218</v>
+      </c>
+      <c r="M2">
+        <v>38.7012860727012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.793443486002106</v>
+        <v>1.637640949188739</v>
       </c>
       <c r="D3">
-        <v>3.274446765269218</v>
+        <v>3.135666581007163</v>
       </c>
       <c r="E3">
-        <v>5.847914819167805</v>
+        <v>5.738231032171386</v>
       </c>
       <c r="F3">
-        <v>34.65942156020669</v>
+        <v>34.68349422358728</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.005097777298436</v>
       </c>
       <c r="H3">
-        <v>25.49074878713174</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.552306703110336</v>
+        <v>25.54574961265401</v>
       </c>
       <c r="J3">
-        <v>56.49043751737174</v>
+        <v>4.540823817358396</v>
       </c>
       <c r="K3">
-        <v>5.154129179144664</v>
+        <v>56.31820791097425</v>
       </c>
       <c r="L3">
-        <v>35.96293894300987</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>5.104895885021126</v>
+      </c>
+      <c r="M3">
+        <v>35.84369857175539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.647434589260495</v>
+        <v>1.491562100785948</v>
       </c>
       <c r="D4">
-        <v>3.009783174488493</v>
+        <v>2.875791285919658</v>
       </c>
       <c r="E4">
-        <v>5.779166278641664</v>
+        <v>5.6658642108409</v>
       </c>
       <c r="F4">
-        <v>33.06393715048036</v>
+        <v>33.14514439378862</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.019575756353496</v>
       </c>
       <c r="H4">
-        <v>24.41106196329615</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>4.688926897438373</v>
+        <v>24.51026624482999</v>
       </c>
       <c r="J4">
-        <v>53.62228784423868</v>
+        <v>4.676582729066332</v>
       </c>
       <c r="K4">
-        <v>5.175301017619477</v>
+        <v>53.46014577760923</v>
       </c>
       <c r="L4">
-        <v>34.13233829355629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>5.124622246631909</v>
+      </c>
+      <c r="M4">
+        <v>34.01894064981882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.588370619787932</v>
+        <v>1.432455540853826</v>
       </c>
       <c r="D5">
-        <v>2.902356947791647</v>
+        <v>2.770509417497583</v>
       </c>
       <c r="E5">
-        <v>5.751639476737702</v>
+        <v>5.636827650685423</v>
       </c>
       <c r="F5">
-        <v>32.43329172865006</v>
+        <v>32.5389118259667</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.025476707500147</v>
       </c>
       <c r="H5">
-        <v>23.98815071967855</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>4.745254898613371</v>
+        <v>24.10612059487316</v>
       </c>
       <c r="J5">
-        <v>52.42372365855843</v>
+        <v>4.732567638027163</v>
       </c>
       <c r="K5">
-        <v>5.18479969533715</v>
+        <v>52.2657182475098</v>
       </c>
       <c r="L5">
-        <v>33.36762803481491</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>5.133535745945651</v>
+      </c>
+      <c r="M5">
+        <v>33.25659843252353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.578582873948136</v>
+        <v>1.422659969918023</v>
       </c>
       <c r="D6">
-        <v>2.884534992877651</v>
+        <v>2.753056264637438</v>
       </c>
       <c r="E6">
-        <v>5.74709746161435</v>
+        <v>5.632032902331463</v>
       </c>
       <c r="F6">
-        <v>32.32972607219969</v>
+        <v>32.43946730559204</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.026457156599363</v>
       </c>
       <c r="H6">
-        <v>23.91893342515009</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>4.754648257875558</v>
+        <v>24.0400632856868</v>
       </c>
       <c r="J6">
-        <v>52.22286053867206</v>
+        <v>4.741904447631297</v>
       </c>
       <c r="K6">
-        <v>5.186428031852123</v>
+        <v>52.06554444379599</v>
       </c>
       <c r="L6">
-        <v>33.23948828038744</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>5.135067118175527</v>
+      </c>
+      <c r="M6">
+        <v>33.12885158208996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.64663656843386</v>
+        <v>1.490763558085425</v>
       </c>
       <c r="D7">
-        <v>3.008333107788523</v>
+        <v>2.874369309591085</v>
       </c>
       <c r="E7">
-        <v>5.778793097662716</v>
+        <v>5.665470807441708</v>
       </c>
       <c r="F7">
-        <v>33.05535425362927</v>
+        <v>33.13688619378981</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.019655309664498</v>
       </c>
       <c r="H7">
-        <v>24.40529044593247</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>4.689683881119028</v>
+        <v>24.50474482215628</v>
       </c>
       <c r="J7">
-        <v>53.60624616618355</v>
+        <v>4.677335056302042</v>
       </c>
       <c r="K7">
-        <v>5.175425663185886</v>
+        <v>53.44415974340202</v>
       </c>
       <c r="L7">
-        <v>34.12210230491419</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>5.124738985957043</v>
+      </c>
+      <c r="M7">
+        <v>34.00873662783215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.951434996429005</v>
+        <v>1.795648295188684</v>
       </c>
       <c r="D8">
-        <v>3.559378285119104</v>
+        <v>3.416054983216098</v>
       </c>
       <c r="E8">
-        <v>5.923030469657529</v>
+        <v>5.817078382871981</v>
       </c>
       <c r="F8">
-        <v>36.59807516716181</v>
+        <v>36.4582029851316</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.989595099868104</v>
       </c>
       <c r="H8">
-        <v>26.96486712724987</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>4.40871761856042</v>
+        <v>26.82149423335</v>
       </c>
       <c r="J8">
-        <v>59.45391918774254</v>
+        <v>4.398186444115222</v>
       </c>
       <c r="K8">
-        <v>5.134673299707309</v>
+        <v>59.27092231491685</v>
       </c>
       <c r="L8">
-        <v>37.85541569210888</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>5.086998547286294</v>
+      </c>
+      <c r="M8">
+        <v>37.72984450187415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.585556778903919</v>
+        <v>2.429119839428096</v>
       </c>
       <c r="D9">
-        <v>4.688590202584328</v>
+        <v>4.530689537880648</v>
       </c>
       <c r="E9">
-        <v>6.224345986220168</v>
+        <v>6.131497944508407</v>
       </c>
       <c r="F9">
-        <v>44.724080252527</v>
+        <v>44.41545898555646</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.928841361785544</v>
       </c>
       <c r="H9">
-        <v>33.17908894942882</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>3.878955043580464</v>
+        <v>32.91809183309729</v>
       </c>
       <c r="J9">
-        <v>70.12959704788055</v>
+        <v>3.872397695513861</v>
       </c>
       <c r="K9">
-        <v>5.087247025725525</v>
+        <v>69.90337053139665</v>
       </c>
       <c r="L9">
-        <v>44.68273766694627</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>5.045680046397157</v>
+      </c>
+      <c r="M9">
+        <v>44.53101657190027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.101972149869055</v>
+        <v>2.943980397587691</v>
       </c>
       <c r="D10">
-        <v>5.593152949890786</v>
+        <v>5.424992593883006</v>
       </c>
       <c r="E10">
-        <v>6.461453484910512</v>
+        <v>6.377206631685041</v>
       </c>
       <c r="F10">
-        <v>51.23871378340036</v>
+        <v>50.81650461025345</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.880841015114158</v>
       </c>
       <c r="H10">
-        <v>38.11021151089169</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>3.991513793099231</v>
+        <v>37.76943898161527</v>
       </c>
       <c r="J10">
-        <v>77.66656134314196</v>
+        <v>4.001764610648034</v>
       </c>
       <c r="K10">
-        <v>5.077920685977329</v>
+        <v>77.40299756267459</v>
       </c>
       <c r="L10">
-        <v>49.51367993586317</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>5.041028847184418</v>
+      </c>
+      <c r="M10">
+        <v>49.33873860031428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.357925036601898</v>
+        <v>3.198733340533018</v>
       </c>
       <c r="D11">
-        <v>6.037165211789568</v>
+        <v>5.863866807074718</v>
       </c>
       <c r="E11">
-        <v>6.574459706682426</v>
+        <v>6.493843737924402</v>
       </c>
       <c r="F11">
-        <v>54.41374891308478</v>
+        <v>53.93847096114582</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.857483388287192</v>
       </c>
       <c r="H11">
-        <v>40.50355275235481</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>4.212047468761119</v>
+        <v>40.12517888709117</v>
       </c>
       <c r="J11">
-        <v>81.08889856774272</v>
+        <v>4.221010110396876</v>
       </c>
       <c r="K11">
-        <v>5.081033639513437</v>
+        <v>80.80538926708732</v>
       </c>
       <c r="L11">
-        <v>51.71079893609336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>5.046322051396789</v>
+      </c>
+      <c r="M11">
+        <v>51.5232959905747</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.459200290577744</v>
+        <v>3.29944158276186</v>
       </c>
       <c r="D12">
-        <v>6.212126886717185</v>
+        <v>6.036735888337221</v>
       </c>
       <c r="E12">
-        <v>6.618227290564739</v>
+        <v>6.538937907020784</v>
       </c>
       <c r="F12">
-        <v>55.65927019214931</v>
+        <v>55.16317375294187</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.848316621789936</v>
       </c>
       <c r="H12">
-        <v>41.44107836129115</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>4.297497984614021</v>
+        <v>41.04788864771252</v>
       </c>
       <c r="J12">
-        <v>82.39168382453576</v>
+        <v>4.305903476997359</v>
       </c>
       <c r="K12">
-        <v>5.08348632597317</v>
+        <v>82.09992726803604</v>
       </c>
       <c r="L12">
-        <v>52.54781621683507</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>5.049608699441351</v>
+      </c>
+      <c r="M12">
+        <v>52.35509439061607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.437167424274273</v>
+        <v>3.27753682552477</v>
       </c>
       <c r="D13">
-        <v>6.174097127626069</v>
+        <v>5.999165128246245</v>
       </c>
       <c r="E13">
-        <v>6.608752829288972</v>
+        <v>6.529180066462166</v>
       </c>
       <c r="F13">
-        <v>55.38883166566523</v>
+        <v>54.89726268961393</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.850307303418344</v>
       </c>
       <c r="H13">
-        <v>41.23757300342989</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>4.27899299887339</v>
+        <v>40.84760851201283</v>
       </c>
       <c r="J13">
-        <v>82.11064195386555</v>
+        <v>4.287522102136297</v>
       </c>
       <c r="K13">
-        <v>5.082897168057823</v>
+        <v>81.82069865212462</v>
       </c>
       <c r="L13">
-        <v>52.36722074819572</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>5.048839558669635</v>
+      </c>
+      <c r="M13">
+        <v>52.17564748192039</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.366160001809243</v>
+        <v>3.206924256540437</v>
       </c>
       <c r="D14">
-        <v>6.051406793682292</v>
+        <v>5.877939797730993</v>
       </c>
       <c r="E14">
-        <v>6.578039209863859</v>
+        <v>6.497533409844491</v>
       </c>
       <c r="F14">
-        <v>54.51525740891441</v>
+        <v>54.03828526922545</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.856736435247782</v>
       </c>
       <c r="H14">
-        <v>40.5799862358149</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>4.219033234116649</v>
+        <v>40.20040806284489</v>
       </c>
       <c r="J14">
-        <v>81.19588638705227</v>
+        <v>4.227951614875282</v>
       </c>
       <c r="K14">
-        <v>5.081208383845345</v>
+        <v>80.91171464796064</v>
       </c>
       <c r="L14">
-        <v>51.77952313897991</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>5.046565237550309</v>
+      </c>
+      <c r="M14">
+        <v>51.5916014971843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.323282252967282</v>
+        <v>3.164271984468063</v>
       </c>
       <c r="D15">
-        <v>5.977224450598125</v>
+        <v>5.804632543010923</v>
       </c>
       <c r="E15">
-        <v>6.559362013409503</v>
+        <v>6.478278098697619</v>
       </c>
       <c r="F15">
-        <v>53.9862775696171</v>
+        <v>53.51813177345173</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.860628739964741</v>
       </c>
       <c r="H15">
-        <v>40.1816238148679</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>4.182586277413067</v>
+        <v>39.80831712746168</v>
       </c>
       <c r="J15">
-        <v>80.63674652245729</v>
+        <v>4.191733134177119</v>
       </c>
       <c r="K15">
-        <v>5.08034753850643</v>
+        <v>80.35600879084259</v>
       </c>
       <c r="L15">
-        <v>51.42038319040043</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>5.045346829762912</v>
+      </c>
+      <c r="M15">
+        <v>51.23463104618177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.085768978120979</v>
+        <v>2.927842736267706</v>
       </c>
       <c r="D16">
-        <v>5.564953097611389</v>
+        <v>5.39711322312727</v>
       </c>
       <c r="E16">
-        <v>6.454189506822761</v>
+        <v>6.369699114491024</v>
       </c>
       <c r="F16">
-        <v>51.03643870641839</v>
+        <v>50.61763114611077</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.882329025295052</v>
       </c>
       <c r="H16">
-        <v>37.9575498997812</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>3.97732529691664</v>
+        <v>37.61917966059868</v>
       </c>
       <c r="J16">
-        <v>77.44336699240414</v>
+        <v>3.987652163638263</v>
       </c>
       <c r="K16">
-        <v>5.077882144777101</v>
+        <v>77.18102761997221</v>
       </c>
       <c r="L16">
-        <v>49.3704713733687</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>5.040848966589271</v>
+      </c>
+      <c r="M16">
+        <v>49.19629808658533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.946227631310382</v>
+        <v>2.7888178748165</v>
       </c>
       <c r="D17">
-        <v>5.321626898224622</v>
+        <v>5.15653734055075</v>
       </c>
       <c r="E17">
-        <v>6.391123613841923</v>
+        <v>6.304466820176802</v>
       </c>
       <c r="F17">
-        <v>49.28840104962016</v>
+        <v>48.89921075362172</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.895190900009121</v>
       </c>
       <c r="H17">
-        <v>36.6372113550785</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>3.853969266860602</v>
+        <v>36.31971953991792</v>
       </c>
       <c r="J17">
-        <v>75.48730059688673</v>
+        <v>3.864925299602785</v>
       </c>
       <c r="K17">
-        <v>5.078386460775686</v>
+        <v>75.23534300677711</v>
       </c>
       <c r="L17">
-        <v>48.11580148813687</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>5.040120753731546</v>
+      </c>
+      <c r="M17">
+        <v>47.94812438626755</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.867843120219657</v>
+        <v>2.710687540249693</v>
       </c>
       <c r="D18">
-        <v>5.184565254811044</v>
+        <v>5.021019594206935</v>
       </c>
       <c r="E18">
-        <v>6.355315430356451</v>
+        <v>6.26738665944271</v>
       </c>
       <c r="F18">
-        <v>48.30186818279623</v>
+        <v>47.92962321991411</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.902453450313075</v>
       </c>
       <c r="H18">
-        <v>35.89115875290065</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>3.783738434053427</v>
+        <v>35.58558325074747</v>
       </c>
       <c r="J18">
-        <v>74.36103540942605</v>
+        <v>3.795028149801201</v>
       </c>
       <c r="K18">
-        <v>5.079352690700826</v>
+        <v>74.11479252723707</v>
       </c>
       <c r="L18">
-        <v>47.39370740789426</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>5.040383079817111</v>
+      </c>
+      <c r="M18">
+        <v>47.22959299646583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.84159389517559</v>
+        <v>2.684517896595682</v>
       </c>
       <c r="D19">
-        <v>5.138604027304397</v>
+        <v>4.975576359074519</v>
       </c>
       <c r="E19">
-        <v>6.343265820175535</v>
+        <v>6.254902107967449</v>
       </c>
       <c r="F19">
-        <v>47.97078760441201</v>
+        <v>47.60427641187001</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.904891677464473</v>
       </c>
       <c r="H19">
-        <v>35.64062644016612</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>3.760064820828593</v>
+        <v>35.33907852417056</v>
       </c>
       <c r="J19">
-        <v>73.97931018199493</v>
+        <v>3.771463185664804</v>
       </c>
       <c r="K19">
-        <v>5.079790478710777</v>
+        <v>73.73496399681407</v>
       </c>
       <c r="L19">
-        <v>47.14901965396272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>5.040583371221904</v>
+      </c>
+      <c r="M19">
+        <v>46.98608547213146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.960880047843681</v>
+        <v>2.803419972653333</v>
       </c>
       <c r="D20">
-        <v>5.347217270391076</v>
+        <v>5.181839313847198</v>
       </c>
       <c r="E20">
-        <v>6.39778751971957</v>
+        <v>6.31136407037106</v>
       </c>
       <c r="F20">
-        <v>49.47245259192414</v>
+        <v>49.0801217018688</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.893836342455406</v>
       </c>
       <c r="H20">
-        <v>36.77632334008397</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>3.867021661169417</v>
+        <v>36.45662072863797</v>
       </c>
       <c r="J20">
-        <v>75.69560400152669</v>
+        <v>3.877913764357454</v>
       </c>
       <c r="K20">
-        <v>5.078261451840849</v>
+        <v>75.44256927860185</v>
       </c>
       <c r="L20">
-        <v>48.24937852098078</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>5.040126424193069</v>
+      </c>
+      <c r="M20">
+        <v>48.08102882205652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.386884862641387</v>
+        <v>3.227536672084682</v>
       </c>
       <c r="D21">
-        <v>6.087236644285901</v>
+        <v>5.913344196206719</v>
       </c>
       <c r="E21">
-        <v>6.587031658203661</v>
+        <v>6.506801310619154</v>
       </c>
       <c r="F21">
-        <v>54.77054197945307</v>
+        <v>54.28930768546964</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.854857825150608</v>
       </c>
       <c r="H21">
-        <v>40.77218841605752</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>4.23658467515544</v>
+        <v>40.38957941692526</v>
       </c>
       <c r="J21">
-        <v>81.46430863723853</v>
+        <v>4.245390857093731</v>
       </c>
       <c r="K21">
-        <v>5.081667747346294</v>
+        <v>81.17846349117114</v>
       </c>
       <c r="L21">
-        <v>51.95195628067907</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>5.047196358938027</v>
+      </c>
+      <c r="M21">
+        <v>51.76297656264573</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.691812041925206</v>
+        <v>3.530527867710339</v>
       </c>
       <c r="D22">
-        <v>6.61250843155772</v>
+        <v>6.432114824771035</v>
       </c>
       <c r="E22">
-        <v>6.716600171196784</v>
+        <v>6.640127769682659</v>
       </c>
       <c r="F22">
-        <v>58.49620763660348</v>
+        <v>57.95213946956835</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.827420551518063</v>
       </c>
       <c r="H22">
-        <v>43.5740980504472</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>4.490037990691107</v>
+        <v>43.14662665679703</v>
       </c>
       <c r="J22">
-        <v>85.28075065335834</v>
+        <v>4.497052622119141</v>
       </c>
       <c r="K22">
-        <v>5.113723869203069</v>
+        <v>84.96913511538828</v>
       </c>
       <c r="L22">
-        <v>54.40533083633908</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>5.133016667903277</v>
+      </c>
+      <c r="M22">
+        <v>54.19999206528632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.526020323793735</v>
+        <v>3.365856362841405</v>
       </c>
       <c r="D23">
-        <v>6.327347810457716</v>
+        <v>6.1505505604808</v>
       </c>
       <c r="E23">
-        <v>6.646797348070804</v>
+        <v>6.568349745348353</v>
       </c>
       <c r="F23">
-        <v>56.47762562061496</v>
+        <v>55.96779262696575</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.842291528808585</v>
       </c>
       <c r="H23">
-        <v>42.05670370579993</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>4.353332643490836</v>
+        <v>41.65371769805908</v>
       </c>
       <c r="J23">
-        <v>83.2360515745971</v>
+        <v>4.361354880269631</v>
       </c>
       <c r="K23">
-        <v>5.08545649241645</v>
+        <v>82.93872774122033</v>
       </c>
       <c r="L23">
-        <v>53.09050486920756</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>5.052119675528678</v>
+      </c>
+      <c r="M23">
+        <v>52.89425280811336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.954250050884788</v>
+        <v>2.796812855267661</v>
       </c>
       <c r="D24">
-        <v>5.335639195651106</v>
+        <v>5.170391735195192</v>
       </c>
       <c r="E24">
-        <v>6.394773384579847</v>
+        <v>6.30824452224064</v>
       </c>
       <c r="F24">
-        <v>49.38918633264828</v>
+        <v>48.9982755261817</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.894449141744453</v>
       </c>
       <c r="H24">
-        <v>36.71339088987311</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>3.861118581959099</v>
+        <v>36.39468802463412</v>
       </c>
       <c r="J24">
-        <v>75.60143584739399</v>
+        <v>3.872039673487646</v>
       </c>
       <c r="K24">
-        <v>5.078315877077606</v>
+        <v>75.34888886958555</v>
       </c>
       <c r="L24">
-        <v>48.18899108515341</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>5.040121754716717</v>
+      </c>
+      <c r="M24">
+        <v>48.02094599188172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.407700922167588</v>
+        <v>2.251571807661448</v>
       </c>
       <c r="D25">
-        <v>4.374077448589727</v>
+        <v>4.219893484380727</v>
       </c>
       <c r="E25">
-        <v>6.140493499020821</v>
+        <v>6.044264556527319</v>
       </c>
       <c r="F25">
-        <v>42.452872555762</v>
+        <v>42.18717527761784</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.945664190111399</v>
       </c>
       <c r="H25">
-        <v>31.45115912479983</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>4.019698361293536</v>
+        <v>31.22012437445193</v>
       </c>
       <c r="J25">
-        <v>67.31100902810931</v>
+        <v>4.012008830116072</v>
       </c>
       <c r="K25">
-        <v>5.096090770267282</v>
+        <v>67.09705276364768</v>
       </c>
       <c r="L25">
-        <v>42.87856981659367</v>
+        <v>5.052843160701126</v>
+      </c>
+      <c r="M25">
+        <v>42.73436892850975</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.879896971143314</v>
+        <v>7.659259715217684</v>
       </c>
       <c r="D2">
-        <v>3.565200510247067</v>
+        <v>5.767477289158349</v>
       </c>
       <c r="E2">
-        <v>5.859208552799057</v>
+        <v>5.844926077618633</v>
       </c>
       <c r="F2">
-        <v>37.51407808738744</v>
+        <v>48.01172854203429</v>
       </c>
       <c r="G2">
-        <v>1.981391261154318</v>
+        <v>2.021959294392008</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>27.63663727142669</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.323945433114959</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>60.79105518020664</v>
+        <v>45.78450572946385</v>
       </c>
       <c r="L2">
-        <v>5.078814404892218</v>
+        <v>4.644123237175273</v>
       </c>
       <c r="M2">
-        <v>38.7012860727012</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>31.38146017497176</v>
+      </c>
+      <c r="N2">
+        <v>11.94631061898408</v>
+      </c>
+      <c r="O2">
+        <v>38.18094773879432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.637640949188739</v>
+        <v>7.469648605203156</v>
       </c>
       <c r="D3">
-        <v>3.135666581007163</v>
+        <v>5.679322593461991</v>
       </c>
       <c r="E3">
-        <v>5.738231032171386</v>
+        <v>5.973658223944037</v>
       </c>
       <c r="F3">
-        <v>34.68349422358728</v>
+        <v>45.06202253949296</v>
       </c>
       <c r="G3">
-        <v>2.005097777298436</v>
+        <v>2.042484053184452</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.54574961265401</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4.540823817358396</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>56.31820791097425</v>
+        <v>42.41420559382507</v>
       </c>
       <c r="L3">
-        <v>5.104895885021126</v>
+        <v>4.681461472469803</v>
       </c>
       <c r="M3">
-        <v>35.84369857175539</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>29.13175411337855</v>
+      </c>
+      <c r="N3">
+        <v>12.13732477451781</v>
+      </c>
+      <c r="O3">
+        <v>35.97967520645309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.491562100785948</v>
+        <v>7.363076702936542</v>
       </c>
       <c r="D4">
-        <v>2.875791285919658</v>
+        <v>5.639833451593018</v>
       </c>
       <c r="E4">
-        <v>5.6658642108409</v>
+        <v>6.055080484267675</v>
       </c>
       <c r="F4">
-        <v>33.14514439378862</v>
+        <v>43.26541307977233</v>
       </c>
       <c r="G4">
-        <v>2.019575756353496</v>
+        <v>2.055134760117121</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.51026624482999</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4.676582729066332</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>53.46014577760923</v>
+        <v>40.25967095693284</v>
       </c>
       <c r="L4">
-        <v>5.124622246631909</v>
+        <v>4.70487193629596</v>
       </c>
       <c r="M4">
-        <v>34.01894064981882</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>27.86421640511901</v>
+      </c>
+      <c r="N4">
+        <v>12.25827581297113</v>
+      </c>
+      <c r="O4">
+        <v>34.65056712142109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.432455540853826</v>
+        <v>7.321961358352485</v>
       </c>
       <c r="D5">
-        <v>2.770509417497583</v>
+        <v>5.627054344253654</v>
       </c>
       <c r="E5">
-        <v>5.636827650685423</v>
+        <v>6.088862795302089</v>
       </c>
       <c r="F5">
-        <v>32.5389118259667</v>
+        <v>42.53651331400312</v>
       </c>
       <c r="G5">
-        <v>2.025476707500147</v>
+        <v>2.060315392800119</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.10612059487316</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4.732567638027163</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>52.2657182475098</v>
+        <v>39.35937274193063</v>
       </c>
       <c r="L5">
-        <v>5.133535745945651</v>
+        <v>4.714546743665617</v>
       </c>
       <c r="M5">
-        <v>33.25659843252353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>27.33940020687909</v>
+      </c>
+      <c r="N5">
+        <v>12.30851558424889</v>
+      </c>
+      <c r="O5">
+        <v>34.11422416772428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.422659969918023</v>
+        <v>7.315269446753268</v>
       </c>
       <c r="D6">
-        <v>2.753056264637438</v>
+        <v>5.625122234442884</v>
       </c>
       <c r="E6">
-        <v>5.632032902331463</v>
+        <v>6.094508835616217</v>
       </c>
       <c r="F6">
-        <v>32.43946730559204</v>
+        <v>42.41566968313042</v>
       </c>
       <c r="G6">
-        <v>2.026457156599363</v>
+        <v>2.061177514658298</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.0400632856868</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4.741904447631297</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>52.06554444379599</v>
+        <v>39.2085083706941</v>
       </c>
       <c r="L6">
-        <v>5.135067118175527</v>
+        <v>4.716161732280025</v>
       </c>
       <c r="M6">
-        <v>33.12885158208996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>27.25175338746741</v>
+      </c>
+      <c r="N6">
+        <v>12.31691610656484</v>
+      </c>
+      <c r="O6">
+        <v>34.02547745959797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.490763558085425</v>
+        <v>7.362513043475291</v>
       </c>
       <c r="D7">
-        <v>2.874369309591085</v>
+        <v>5.639648160323299</v>
       </c>
       <c r="E7">
-        <v>5.665470807441708</v>
+        <v>6.055533640042964</v>
       </c>
       <c r="F7">
-        <v>33.13688619378981</v>
+        <v>43.25557009258457</v>
       </c>
       <c r="G7">
-        <v>2.019655309664498</v>
+        <v>2.055204509187349</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.50474482215628</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4.677335056302042</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>53.44415974340202</v>
+        <v>40.24762061373659</v>
       </c>
       <c r="L7">
-        <v>5.124738985957043</v>
+        <v>4.705001852112666</v>
       </c>
       <c r="M7">
-        <v>34.00873662783215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>27.8571721700002</v>
+      </c>
+      <c r="N7">
+        <v>12.25894947629236</v>
+      </c>
+      <c r="O7">
+        <v>34.64331274994423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.795648295188684</v>
+        <v>7.591733313827675</v>
       </c>
       <c r="D8">
-        <v>3.416054983216098</v>
+        <v>5.73381316288649</v>
       </c>
       <c r="E8">
-        <v>5.817078382871981</v>
+        <v>5.888820211526066</v>
       </c>
       <c r="F8">
-        <v>36.4582029851316</v>
+        <v>46.9912887019976</v>
       </c>
       <c r="G8">
-        <v>1.989595099868104</v>
+        <v>2.029034771925692</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.82149423335</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4.398186444115222</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>59.27092231491685</v>
+        <v>44.63951009623403</v>
       </c>
       <c r="L8">
-        <v>5.086998547286294</v>
+        <v>4.656905235217912</v>
       </c>
       <c r="M8">
-        <v>37.72984450187415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>30.59011634441317</v>
+      </c>
+      <c r="N8">
+        <v>12.01142959526376</v>
+      </c>
+      <c r="O8">
+        <v>37.41697358900431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.429119839428096</v>
+        <v>8.128013159067574</v>
       </c>
       <c r="D9">
-        <v>4.530689537880648</v>
+        <v>6.052876096384397</v>
       </c>
       <c r="E9">
-        <v>6.131497944508407</v>
+        <v>5.580804845346582</v>
       </c>
       <c r="F9">
-        <v>44.41545898555646</v>
+        <v>54.51905739471535</v>
       </c>
       <c r="G9">
-        <v>1.928841361785544</v>
+        <v>1.977374850175151</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>32.91809183309729</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>3.872397695513861</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>69.90337053139665</v>
+        <v>52.62678492710733</v>
       </c>
       <c r="L9">
-        <v>5.045680046397157</v>
+        <v>4.565741166871426</v>
       </c>
       <c r="M9">
-        <v>44.53101657190027</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>36.11545264425729</v>
+      </c>
+      <c r="N9">
+        <v>11.55360931131773</v>
+      </c>
+      <c r="O9">
+        <v>43.06811656995838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.943980397587691</v>
+        <v>8.590031420230854</v>
       </c>
       <c r="D10">
-        <v>5.424992593883006</v>
+        <v>6.398346060167757</v>
       </c>
       <c r="E10">
-        <v>6.377206631685041</v>
+        <v>5.36653212833878</v>
       </c>
       <c r="F10">
-        <v>50.81650461025345</v>
+        <v>60.56823843410317</v>
       </c>
       <c r="G10">
-        <v>1.880841015114158</v>
+        <v>1.937918388967325</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>37.76943898161527</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4.001764610648034</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>77.40299756267459</v>
+        <v>58.20508920303935</v>
       </c>
       <c r="L10">
-        <v>5.041028847184418</v>
+        <v>4.499502729459666</v>
       </c>
       <c r="M10">
-        <v>49.33873860031428</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>39.98245782188746</v>
+      </c>
+      <c r="N10">
+        <v>11.23135205713281</v>
+      </c>
+      <c r="O10">
+        <v>47.89896522114268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.198733340533018</v>
+        <v>8.819742768496731</v>
       </c>
       <c r="D11">
-        <v>5.863866807074718</v>
+        <v>6.587771214368543</v>
       </c>
       <c r="E11">
-        <v>6.493843737924402</v>
+        <v>5.271997811084262</v>
       </c>
       <c r="F11">
-        <v>53.93847096114582</v>
+        <v>63.38462836826716</v>
       </c>
       <c r="G11">
-        <v>1.857483388287192</v>
+        <v>1.919234602747088</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>40.12517888709117</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4.221010110396876</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>80.80538926708732</v>
+        <v>60.70874288788196</v>
       </c>
       <c r="L11">
-        <v>5.046322051396789</v>
+        <v>4.469179851421446</v>
       </c>
       <c r="M11">
-        <v>51.5232959905747</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>41.72056316792668</v>
+      </c>
+      <c r="N11">
+        <v>11.08694811748024</v>
+      </c>
+      <c r="O11">
+        <v>50.16013131076399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.29944158276186</v>
+        <v>8.910101928099635</v>
       </c>
       <c r="D12">
-        <v>6.036735888337221</v>
+        <v>6.665036038947957</v>
       </c>
       <c r="E12">
-        <v>6.538937907020784</v>
+        <v>5.236677137479991</v>
       </c>
       <c r="F12">
-        <v>55.16317375294187</v>
+        <v>64.46554957830148</v>
       </c>
       <c r="G12">
-        <v>1.848316621789936</v>
+        <v>1.912006001086415</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>41.04788864771252</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4.305903476997359</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>82.09992726803604</v>
+        <v>61.65531821309194</v>
       </c>
       <c r="L12">
-        <v>5.049608699441351</v>
+        <v>4.45763124381018</v>
       </c>
       <c r="M12">
-        <v>52.35509439061607</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>42.3781369111857</v>
+      </c>
+      <c r="N12">
+        <v>11.03247644495036</v>
+      </c>
+      <c r="O12">
+        <v>51.02822863234816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.27753682552477</v>
+        <v>8.890480414269426</v>
       </c>
       <c r="D13">
-        <v>5.999165128246245</v>
+        <v>6.648132547086649</v>
       </c>
       <c r="E13">
-        <v>6.529180066462166</v>
+        <v>5.244261643970974</v>
       </c>
       <c r="F13">
-        <v>54.89726268961393</v>
+        <v>64.23201058801492</v>
       </c>
       <c r="G13">
-        <v>1.850307303418344</v>
+        <v>1.913570566743246</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>40.84760851201283</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4.287522102136297</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>81.82069865212462</v>
+        <v>61.45145732485503</v>
       </c>
       <c r="L13">
-        <v>5.048839558669635</v>
+        <v>4.460122105755929</v>
       </c>
       <c r="M13">
-        <v>52.17564748192039</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>42.23649673105505</v>
+      </c>
+      <c r="N13">
+        <v>11.04420061007093</v>
+      </c>
+      <c r="O13">
+        <v>50.84065803810377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.206924256540437</v>
+        <v>8.827105170345179</v>
       </c>
       <c r="D14">
-        <v>5.877939797730993</v>
+        <v>6.5940109048022</v>
       </c>
       <c r="E14">
-        <v>6.497533409844491</v>
+        <v>5.269081969054866</v>
       </c>
       <c r="F14">
-        <v>54.03828526922545</v>
+        <v>63.4732314090616</v>
       </c>
       <c r="G14">
-        <v>1.856736435247782</v>
+        <v>1.918643306589451</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>40.20040806284489</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4.227951614875282</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>80.91171464796064</v>
+        <v>60.78662505273618</v>
       </c>
       <c r="L14">
-        <v>5.046565237550309</v>
+        <v>4.468231321304216</v>
       </c>
       <c r="M14">
-        <v>51.5916014971843</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>41.77465773109439</v>
+      </c>
+      <c r="N14">
+        <v>11.08246321256064</v>
+      </c>
+      <c r="O14">
+        <v>50.23128331282085</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.164271984468063</v>
+        <v>8.788745137170334</v>
       </c>
       <c r="D15">
-        <v>5.804632543010923</v>
+        <v>6.561611284448592</v>
       </c>
       <c r="E15">
-        <v>6.478278098697619</v>
+        <v>5.284349437570436</v>
       </c>
       <c r="F15">
-        <v>53.51813177345173</v>
+        <v>63.01051841304799</v>
       </c>
       <c r="G15">
-        <v>1.860628739964741</v>
+        <v>1.921728839650306</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>39.80831712746168</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4.191733134177119</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>80.35600879084259</v>
+        <v>60.37931906964216</v>
       </c>
       <c r="L15">
-        <v>5.045346829762912</v>
+        <v>4.473188535274957</v>
       </c>
       <c r="M15">
-        <v>51.23463104618177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>41.49177352884913</v>
+      </c>
+      <c r="N15">
+        <v>11.10592386884346</v>
+      </c>
+      <c r="O15">
+        <v>49.85971646311837</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.927842736267706</v>
+        <v>8.575456438148466</v>
       </c>
       <c r="D16">
-        <v>5.39711322312727</v>
+        <v>6.386686999928089</v>
       </c>
       <c r="E16">
-        <v>6.369699114491024</v>
+        <v>5.372773362118216</v>
       </c>
       <c r="F16">
-        <v>50.61763114611077</v>
+        <v>60.38587865010609</v>
       </c>
       <c r="G16">
-        <v>1.882329025295052</v>
+        <v>1.9391208791076</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>37.61917966059868</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>3.987652163638263</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>77.18102761997221</v>
+        <v>58.0410516890995</v>
       </c>
       <c r="L16">
-        <v>5.040848966589271</v>
+        <v>4.50147749015512</v>
       </c>
       <c r="M16">
-        <v>49.19629808658533</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>39.86863524486221</v>
+      </c>
+      <c r="N16">
+        <v>11.24082523488766</v>
+      </c>
+      <c r="O16">
+        <v>47.75258849273786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.7888178748165</v>
+        <v>8.449961358244074</v>
       </c>
       <c r="D17">
-        <v>5.15653734055075</v>
+        <v>6.288206159238771</v>
       </c>
       <c r="E17">
-        <v>6.304466820176802</v>
+        <v>5.427802007675486</v>
       </c>
       <c r="F17">
-        <v>48.89921075362172</v>
+        <v>58.79540537900901</v>
       </c>
       <c r="G17">
-        <v>1.895190900009121</v>
+        <v>1.949572527499591</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>36.31971953991792</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>3.864925299602785</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>75.23534300677711</v>
+        <v>56.59999788898432</v>
       </c>
       <c r="L17">
-        <v>5.040120753731546</v>
+        <v>4.518758543988655</v>
       </c>
       <c r="M17">
-        <v>47.94812438626755</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>38.86900569083928</v>
+      </c>
+      <c r="N17">
+        <v>11.32408121875917</v>
+      </c>
+      <c r="O17">
+        <v>46.47609949236814</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.710687540249693</v>
+        <v>8.379576604079892</v>
       </c>
       <c r="D18">
-        <v>5.021019594206935</v>
+        <v>6.234535464835111</v>
       </c>
       <c r="E18">
-        <v>6.26738665944271</v>
+        <v>5.459725117137233</v>
       </c>
       <c r="F18">
-        <v>47.92962321991411</v>
+        <v>57.88629342907196</v>
       </c>
       <c r="G18">
-        <v>1.902453450313075</v>
+        <v>1.955518432945006</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>35.58558325074747</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>3.795028149801201</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>74.11479252723707</v>
+        <v>55.76769512314971</v>
       </c>
       <c r="L18">
-        <v>5.040383079817111</v>
+        <v>4.528682996971048</v>
       </c>
       <c r="M18">
-        <v>47.22959299646583</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>38.29188760249134</v>
+      </c>
+      <c r="N18">
+        <v>11.37218215768171</v>
+      </c>
+      <c r="O18">
+        <v>45.74657698770784</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.684517896595682</v>
+        <v>8.356039776332034</v>
       </c>
       <c r="D19">
-        <v>4.975576359074519</v>
+        <v>6.216850572361451</v>
       </c>
       <c r="E19">
-        <v>6.254902107967449</v>
+        <v>5.470579234162936</v>
       </c>
       <c r="F19">
-        <v>47.60427641187001</v>
+        <v>57.57933187981328</v>
       </c>
       <c r="G19">
-        <v>1.904891677464473</v>
+        <v>1.957521572467563</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>35.33907852417056</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>3.771463185664804</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>73.73496399681407</v>
+        <v>55.48521306920732</v>
       </c>
       <c r="L19">
-        <v>5.040583371221904</v>
+        <v>4.532041663766922</v>
       </c>
       <c r="M19">
-        <v>46.98608547213146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>38.0960527856606</v>
+      </c>
+      <c r="N19">
+        <v>11.3885077172534</v>
+      </c>
+      <c r="O19">
+        <v>45.5002716417258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.803419972653333</v>
+        <v>8.463131063151774</v>
       </c>
       <c r="D20">
-        <v>5.181839313847198</v>
+        <v>6.298376212766526</v>
       </c>
       <c r="E20">
-        <v>6.31136407037106</v>
+        <v>5.421915646499246</v>
       </c>
       <c r="F20">
-        <v>49.0801217018688</v>
+        <v>58.96409392841166</v>
       </c>
       <c r="G20">
-        <v>1.893836342455406</v>
+        <v>1.948467021329133</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>36.45662072863797</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>3.877913764357454</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>75.44256927860185</v>
+        <v>56.75373607034832</v>
       </c>
       <c r="L20">
-        <v>5.040126424193069</v>
+        <v>4.516920762629884</v>
       </c>
       <c r="M20">
-        <v>48.08102882205652</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>38.97562612297662</v>
+      </c>
+      <c r="N20">
+        <v>11.31519693640305</v>
+      </c>
+      <c r="O20">
+        <v>46.61147367179289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.227536672084682</v>
+        <v>8.845623043830395</v>
       </c>
       <c r="D21">
-        <v>5.913344196206719</v>
+        <v>6.609749167992667</v>
       </c>
       <c r="E21">
-        <v>6.506801310619154</v>
+        <v>5.261778095159101</v>
       </c>
       <c r="F21">
-        <v>54.28930768546964</v>
+        <v>63.69566178075493</v>
       </c>
       <c r="G21">
-        <v>1.854857825150608</v>
+        <v>1.917157943670248</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>40.38957941692526</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4.245390857093731</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>81.17846349117114</v>
+        <v>60.98191079548408</v>
       </c>
       <c r="L21">
-        <v>5.047196358938027</v>
+        <v>4.4658515984983</v>
       </c>
       <c r="M21">
-        <v>51.76297656264573</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>41.91030442225246</v>
+      </c>
+      <c r="N21">
+        <v>11.0712198637927</v>
+      </c>
+      <c r="O21">
+        <v>50.40990891421586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.530527867710339</v>
+        <v>9.115679185241058</v>
       </c>
       <c r="D22">
-        <v>6.432114824771035</v>
+        <v>6.847205733583663</v>
       </c>
       <c r="E22">
-        <v>6.640127769682659</v>
+        <v>5.15995177402917</v>
       </c>
       <c r="F22">
-        <v>57.95213946956835</v>
+        <v>66.87594195191049</v>
       </c>
       <c r="G22">
-        <v>1.827420551518063</v>
+        <v>1.895766220763641</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>43.14662665679703</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4.497052622119141</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>84.96913511538828</v>
+        <v>63.73897074098301</v>
       </c>
       <c r="L22">
-        <v>5.133016667903277</v>
+        <v>4.432064035219552</v>
       </c>
       <c r="M22">
-        <v>54.19999206528632</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>43.82649739848847</v>
+      </c>
+      <c r="N22">
+        <v>10.91291470643951</v>
+      </c>
+      <c r="O22">
+        <v>52.96462610753585</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.365856362841405</v>
+        <v>8.969467398123818</v>
       </c>
       <c r="D23">
-        <v>6.1505505604808</v>
+        <v>6.716591641788313</v>
       </c>
       <c r="E23">
-        <v>6.568349745348353</v>
+        <v>5.214012519266336</v>
       </c>
       <c r="F23">
-        <v>55.96779262696575</v>
+        <v>65.16829369242582</v>
       </c>
       <c r="G23">
-        <v>1.842291528808585</v>
+        <v>1.907288685094719</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>41.65371769805908</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4.361354880269631</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>82.93872774122033</v>
+        <v>62.26662094806464</v>
       </c>
       <c r="L23">
-        <v>5.052119675528678</v>
+        <v>4.450150372208511</v>
       </c>
       <c r="M23">
-        <v>52.89425280811336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>42.80293159078967</v>
+      </c>
+      <c r="N23">
+        <v>10.9973461376361</v>
+      </c>
+      <c r="O23">
+        <v>51.59269448362067</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.796812855267661</v>
+        <v>8.45717158466733</v>
       </c>
       <c r="D24">
-        <v>5.170391735195192</v>
+        <v>6.293769215213862</v>
       </c>
       <c r="E24">
-        <v>6.30824452224064</v>
+        <v>5.424575981970955</v>
       </c>
       <c r="F24">
-        <v>48.9982755261817</v>
+        <v>58.88781377306592</v>
       </c>
       <c r="G24">
-        <v>1.894449141744453</v>
+        <v>1.948967013166585</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>36.39468802463412</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>3.872039673487646</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>75.34888886958555</v>
+        <v>56.68424318128849</v>
       </c>
       <c r="L24">
-        <v>5.040121754716717</v>
+        <v>4.517751654005799</v>
       </c>
       <c r="M24">
-        <v>48.02094599188172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>38.9274307270555</v>
+      </c>
+      <c r="N24">
+        <v>11.31921277820466</v>
+      </c>
+      <c r="O24">
+        <v>46.55025775716122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.251571807661448</v>
+        <v>7.972288956596149</v>
       </c>
       <c r="D25">
-        <v>4.219893484380727</v>
+        <v>5.949421131543644</v>
       </c>
       <c r="E25">
-        <v>6.044264556527319</v>
+        <v>5.662085256644263</v>
       </c>
       <c r="F25">
-        <v>42.18717527761784</v>
+        <v>52.42478602635921</v>
       </c>
       <c r="G25">
-        <v>1.945664190111399</v>
+        <v>1.991502188485595</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>31.22012437445193</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4.012008830116072</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>67.09705276364768</v>
+        <v>50.52484635796753</v>
       </c>
       <c r="L25">
-        <v>5.052843160701126</v>
+        <v>4.590174120343601</v>
       </c>
       <c r="M25">
-        <v>42.73436892850975</v>
+        <v>34.66018037462137</v>
+      </c>
+      <c r="N25">
+        <v>11.67475276729898</v>
+      </c>
+      <c r="O25">
+        <v>41.51033583001024</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.659259715217684</v>
+        <v>7.218419570716991</v>
       </c>
       <c r="D2">
-        <v>5.767477289158349</v>
+        <v>9.993714784701066</v>
       </c>
       <c r="E2">
-        <v>5.844926077618633</v>
+        <v>10.48344718433329</v>
       </c>
       <c r="F2">
-        <v>48.01172854203429</v>
+        <v>63.62563425913126</v>
       </c>
       <c r="G2">
-        <v>2.021959294392008</v>
+        <v>2.059870353879134</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>45.78450572946385</v>
+        <v>21.21318273436741</v>
       </c>
       <c r="L2">
-        <v>4.644123237175273</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>31.38146017497176</v>
+        <v>18.9724573750422</v>
       </c>
       <c r="N2">
-        <v>11.94631061898408</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>38.18094773879432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.469648605203156</v>
+        <v>6.681954999354833</v>
       </c>
       <c r="D3">
-        <v>5.679322593461991</v>
+        <v>9.53944206517232</v>
       </c>
       <c r="E3">
-        <v>5.973658223944037</v>
+        <v>9.855404114601059</v>
       </c>
       <c r="F3">
-        <v>45.06202253949296</v>
+        <v>59.7152124769522</v>
       </c>
       <c r="G3">
-        <v>2.042484053184452</v>
+        <v>2.076573149393093</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>42.41420559382507</v>
+        <v>19.60582220775683</v>
       </c>
       <c r="L3">
-        <v>4.681461472469803</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>29.13175411337855</v>
+        <v>17.56410076442598</v>
       </c>
       <c r="N3">
-        <v>12.13732477451781</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>35.97967520645309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.363076702936542</v>
+        <v>6.338735948689096</v>
       </c>
       <c r="D4">
-        <v>5.639833451593018</v>
+        <v>9.259415974295223</v>
       </c>
       <c r="E4">
-        <v>6.055080484267675</v>
+        <v>9.46338379513613</v>
       </c>
       <c r="F4">
-        <v>43.26541307977233</v>
+        <v>57.26361486735277</v>
       </c>
       <c r="G4">
-        <v>2.055134760117121</v>
+        <v>2.086913486921399</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>40.25967095693284</v>
+        <v>18.57938052679537</v>
       </c>
       <c r="L4">
-        <v>4.70487193629596</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>27.86421640511901</v>
+        <v>16.66428762037868</v>
       </c>
       <c r="N4">
-        <v>12.25827581297113</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>34.65056712142109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.321961358352485</v>
+        <v>6.195254981812989</v>
       </c>
       <c r="D5">
-        <v>5.627054344253654</v>
+        <v>9.14497142820483</v>
       </c>
       <c r="E5">
-        <v>6.088862795302089</v>
+        <v>9.302016725583082</v>
       </c>
       <c r="F5">
-        <v>42.53651331400312</v>
+        <v>56.25165480020535</v>
       </c>
       <c r="G5">
-        <v>2.060315392800119</v>
+        <v>2.091157083535146</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>39.35937274193063</v>
+        <v>18.15069975202593</v>
       </c>
       <c r="L5">
-        <v>4.714546743665617</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>27.33940020687909</v>
+        <v>16.28839217407461</v>
       </c>
       <c r="N5">
-        <v>12.30851558424889</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>34.11422416772428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.315269446753268</v>
+        <v>6.171207862634195</v>
       </c>
       <c r="D6">
-        <v>5.625122234442884</v>
+        <v>9.12594692508387</v>
       </c>
       <c r="E6">
-        <v>6.094508835616217</v>
+        <v>9.275125053785173</v>
       </c>
       <c r="F6">
-        <v>42.41566968313042</v>
+        <v>56.08283962106471</v>
       </c>
       <c r="G6">
-        <v>2.061177514658298</v>
+        <v>2.091863759843474</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>39.2085083706941</v>
+        <v>18.07887719011749</v>
       </c>
       <c r="L6">
-        <v>4.716161732280025</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>27.25175338746741</v>
+        <v>16.2254078152376</v>
       </c>
       <c r="N6">
-        <v>12.31691610656484</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>34.02547745959797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.362513043475291</v>
+        <v>6.336815730331208</v>
       </c>
       <c r="D7">
-        <v>5.639648160323299</v>
+        <v>9.257873928958603</v>
       </c>
       <c r="E7">
-        <v>6.055533640042964</v>
+        <v>9.461214055564762</v>
       </c>
       <c r="F7">
-        <v>43.25557009258457</v>
+        <v>57.25001955087296</v>
       </c>
       <c r="G7">
-        <v>2.055204509187349</v>
+        <v>2.08697058630357</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>40.24762061373659</v>
+        <v>18.57364185749401</v>
       </c>
       <c r="L7">
-        <v>4.705001852112666</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>27.8571721700002</v>
+        <v>16.659255960202</v>
       </c>
       <c r="N7">
-        <v>12.25894947629236</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>34.64331274994423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.591733313827675</v>
+        <v>7.036227568479782</v>
       </c>
       <c r="D8">
-        <v>5.73381316288649</v>
+        <v>9.837267161824075</v>
       </c>
       <c r="E8">
-        <v>5.888820211526066</v>
+        <v>10.26820595573179</v>
       </c>
       <c r="F8">
-        <v>46.9912887019976</v>
+        <v>62.28760733307431</v>
       </c>
       <c r="G8">
-        <v>2.029034771925692</v>
+        <v>2.065617367268425</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>44.63951009623403</v>
+        <v>20.66687091128895</v>
       </c>
       <c r="L8">
-        <v>4.656905235217912</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>30.59011634441317</v>
+        <v>18.49388406200752</v>
       </c>
       <c r="N8">
-        <v>12.01142959526376</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>37.41697358900431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.128013159067574</v>
+        <v>8.305321902360403</v>
       </c>
       <c r="D9">
-        <v>6.052876096384397</v>
+        <v>10.96910724516895</v>
       </c>
       <c r="E9">
-        <v>5.580804845346582</v>
+        <v>11.80321249434301</v>
       </c>
       <c r="F9">
-        <v>54.51905739471535</v>
+        <v>71.79100915596838</v>
       </c>
       <c r="G9">
-        <v>1.977374850175151</v>
+        <v>2.023963089619603</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>52.62678492710733</v>
+        <v>24.48241449014005</v>
       </c>
       <c r="L9">
-        <v>4.565741166871426</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>36.11545264425729</v>
+        <v>21.83392761536663</v>
       </c>
       <c r="N9">
-        <v>11.55360931131773</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>43.06811656995838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.590031420230854</v>
+        <v>9.187383101448257</v>
       </c>
       <c r="D10">
-        <v>6.398346060167757</v>
+        <v>11.80768395001213</v>
       </c>
       <c r="E10">
-        <v>5.36653212833878</v>
+        <v>12.91148191777037</v>
       </c>
       <c r="F10">
-        <v>60.56823843410317</v>
+        <v>78.60909211385022</v>
       </c>
       <c r="G10">
-        <v>1.937918388967325</v>
+        <v>1.992721757802211</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>58.20508920303935</v>
+        <v>27.15019895727317</v>
       </c>
       <c r="L10">
-        <v>4.499502729459666</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>39.98245782188746</v>
+        <v>24.16543369413097</v>
       </c>
       <c r="N10">
-        <v>11.23135205713281</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>47.89896522114268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.819742768496731</v>
+        <v>9.581197290368998</v>
       </c>
       <c r="D11">
-        <v>6.587771214368543</v>
+        <v>12.19413123039434</v>
       </c>
       <c r="E11">
-        <v>5.271997811084262</v>
+        <v>13.41515731243492</v>
       </c>
       <c r="F11">
-        <v>63.38462836826716</v>
+        <v>81.69908893080988</v>
       </c>
       <c r="G11">
-        <v>1.919234602747088</v>
+        <v>1.978144171474957</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>60.70874288788196</v>
+        <v>28.34626678872225</v>
       </c>
       <c r="L11">
-        <v>4.469179851421446</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>41.72056316792668</v>
+        <v>25.20952109505293</v>
       </c>
       <c r="N11">
-        <v>11.08694811748024</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>50.16013131076399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.910101928099635</v>
+        <v>9.729627930134219</v>
       </c>
       <c r="D12">
-        <v>6.665036038947957</v>
+        <v>12.34159432373884</v>
       </c>
       <c r="E12">
-        <v>5.236677137479991</v>
+        <v>13.60627303390281</v>
       </c>
       <c r="F12">
-        <v>64.46554957830148</v>
+        <v>82.87038118256082</v>
       </c>
       <c r="G12">
-        <v>1.912006001086415</v>
+        <v>1.972546651863994</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>61.65531821309194</v>
+        <v>28.79795123462924</v>
       </c>
       <c r="L12">
-        <v>4.45763124381018</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>42.3781369111857</v>
+        <v>25.60359545269549</v>
       </c>
       <c r="N12">
-        <v>11.03247644495036</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>51.02822863234816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.890480414269426</v>
+        <v>9.697684897924278</v>
       </c>
       <c r="D13">
-        <v>6.648132547086649</v>
+        <v>12.30977763491135</v>
       </c>
       <c r="E13">
-        <v>5.244261643970974</v>
+        <v>13.5650869266431</v>
       </c>
       <c r="F13">
-        <v>64.23201058801492</v>
+        <v>82.6180153667445</v>
       </c>
       <c r="G13">
-        <v>1.913570566743246</v>
+        <v>1.97375607751139</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>61.45145732485503</v>
+        <v>28.7007042603612</v>
       </c>
       <c r="L13">
-        <v>4.460122105755929</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>42.23649673105505</v>
+        <v>25.51876221254066</v>
       </c>
       <c r="N13">
-        <v>11.04420061007093</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>50.84065803810377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.827105170345179</v>
+        <v>9.593420312882687</v>
       </c>
       <c r="D14">
-        <v>6.5940109048022</v>
+        <v>12.20623778798193</v>
       </c>
       <c r="E14">
-        <v>5.269081969054866</v>
+        <v>13.4308696867893</v>
       </c>
       <c r="F14">
-        <v>63.4732314090616</v>
+        <v>81.7954088575115</v>
       </c>
       <c r="G14">
-        <v>1.918643306589451</v>
+        <v>1.977685373383211</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>60.78662505273618</v>
+        <v>28.3834435396112</v>
       </c>
       <c r="L14">
-        <v>4.468231321304216</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>41.77465773109439</v>
+        <v>25.24196073965506</v>
       </c>
       <c r="N14">
-        <v>11.08246321256064</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>50.23128331282085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.788745137170334</v>
+        <v>9.529476857166959</v>
       </c>
       <c r="D15">
-        <v>6.561611284448592</v>
+        <v>12.14297728532357</v>
       </c>
       <c r="E15">
-        <v>5.284349437570436</v>
+        <v>13.3487237938909</v>
       </c>
       <c r="F15">
-        <v>63.01051841304799</v>
+        <v>81.29179105824102</v>
       </c>
       <c r="G15">
-        <v>1.921728839650306</v>
+        <v>1.980081274112196</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>60.37931906964216</v>
+        <v>28.188993964663</v>
       </c>
       <c r="L15">
-        <v>4.473188535274957</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>41.49177352884913</v>
+        <v>25.07227915928091</v>
       </c>
       <c r="N15">
-        <v>11.10592386884346</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>49.85971646311837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.575456438148466</v>
+        <v>9.161526536385828</v>
       </c>
       <c r="D16">
-        <v>6.386686999928089</v>
+        <v>11.78256097729811</v>
       </c>
       <c r="E16">
-        <v>5.372773362118216</v>
+        <v>12.87859150904191</v>
       </c>
       <c r="F16">
-        <v>60.38587865010609</v>
+        <v>78.4071446237902</v>
       </c>
       <c r="G16">
-        <v>1.9391208791076</v>
+        <v>1.993665100436954</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>58.0410516890995</v>
+        <v>27.07178302853536</v>
       </c>
       <c r="L16">
-        <v>4.50147749015512</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>39.86863524486221</v>
+        <v>24.09695396226984</v>
       </c>
       <c r="N16">
-        <v>11.24082523488766</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>47.75258849273786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.449961358244074</v>
+        <v>8.934133884633551</v>
       </c>
       <c r="D17">
-        <v>6.288206159238771</v>
+        <v>11.56298502348294</v>
       </c>
       <c r="E17">
-        <v>5.427802007675486</v>
+        <v>12.59033779541327</v>
       </c>
       <c r="F17">
-        <v>58.79540537900901</v>
+        <v>76.63630983229186</v>
       </c>
       <c r="G17">
-        <v>1.949572527499591</v>
+        <v>2.001888886995476</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>56.59999788898432</v>
+        <v>26.38274122666529</v>
       </c>
       <c r="L17">
-        <v>4.518758543988655</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>38.86900569083928</v>
+        <v>23.49508088119937</v>
       </c>
       <c r="N17">
-        <v>11.32408121875917</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>46.47609949236814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.379576604079892</v>
+        <v>8.802616817644408</v>
       </c>
       <c r="D18">
-        <v>6.234535464835111</v>
+        <v>11.4371282532414</v>
       </c>
       <c r="E18">
-        <v>5.459725117137233</v>
+        <v>12.42446207023793</v>
       </c>
       <c r="F18">
-        <v>57.88629342907196</v>
+        <v>75.61646869295858</v>
       </c>
       <c r="G18">
-        <v>1.955518432945006</v>
+        <v>2.006586345135363</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>55.76769512314971</v>
+        <v>25.98468170707483</v>
       </c>
       <c r="L18">
-        <v>4.528682996971048</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>38.29188760249134</v>
+        <v>23.14726663983503</v>
       </c>
       <c r="N18">
-        <v>11.37218215768171</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>45.74657698770784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.356039776332034</v>
+        <v>8.757952593913858</v>
       </c>
       <c r="D19">
-        <v>6.216850572361451</v>
+        <v>11.39457993580188</v>
       </c>
       <c r="E19">
-        <v>5.470579234162936</v>
+        <v>12.3682740646136</v>
       </c>
       <c r="F19">
-        <v>57.57933187981328</v>
+        <v>75.27087065859105</v>
       </c>
       <c r="G19">
-        <v>1.957521572467563</v>
+        <v>2.00817187537193</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>55.48521306920732</v>
+        <v>25.84957239932967</v>
       </c>
       <c r="L19">
-        <v>4.532041663766922</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>38.0960527856606</v>
+        <v>23.02919344427793</v>
       </c>
       <c r="N19">
-        <v>11.3885077172534</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>45.5002716417258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.463131063151774</v>
+        <v>8.958413023969527</v>
       </c>
       <c r="D20">
-        <v>6.298376212766526</v>
+        <v>11.58631140440839</v>
       </c>
       <c r="E20">
-        <v>5.421915646499246</v>
+        <v>12.62102830752483</v>
       </c>
       <c r="F20">
-        <v>58.96409392841166</v>
+        <v>76.82493520287755</v>
       </c>
       <c r="G20">
-        <v>1.948467021329133</v>
+        <v>2.001016989729432</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>56.75373607034832</v>
+        <v>26.4562627737009</v>
       </c>
       <c r="L20">
-        <v>4.516920762629884</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>38.97562612297662</v>
+        <v>23.55931327878311</v>
       </c>
       <c r="N20">
-        <v>11.31519693640305</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>46.61147367179289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.845623043830395</v>
+        <v>9.624060890042198</v>
       </c>
       <c r="D21">
-        <v>6.609749167992667</v>
+        <v>12.23661555796076</v>
       </c>
       <c r="E21">
-        <v>5.261778095159101</v>
+        <v>13.47027775879579</v>
       </c>
       <c r="F21">
-        <v>63.69566178075493</v>
+        <v>82.03696938035195</v>
       </c>
       <c r="G21">
-        <v>1.917157943670248</v>
+        <v>1.976533570098995</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>60.98191079548408</v>
+        <v>28.4766525936946</v>
       </c>
       <c r="L21">
-        <v>4.4658515984983</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>41.91030442225246</v>
+        <v>25.32328938174055</v>
       </c>
       <c r="N21">
-        <v>11.0712198637927</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>50.40990891421586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.115679185241058</v>
+        <v>10.05527392681799</v>
       </c>
       <c r="D22">
-        <v>6.847205733583663</v>
+        <v>12.66846759753657</v>
       </c>
       <c r="E22">
-        <v>5.15995177402917</v>
+        <v>14.05803646351582</v>
       </c>
       <c r="F22">
-        <v>66.87594195191049</v>
+        <v>85.45219903876333</v>
       </c>
       <c r="G22">
-        <v>1.895766220763641</v>
+        <v>1.96006522138984</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>63.73897074098301</v>
+        <v>29.79070912605541</v>
       </c>
       <c r="L22">
-        <v>4.432064035219552</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>43.82649739848847</v>
+        <v>26.46928947251979</v>
       </c>
       <c r="N22">
-        <v>10.91291470643951</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>52.96462610753585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.969467398123818</v>
+        <v>9.825329680372176</v>
       </c>
       <c r="D23">
-        <v>6.716591641788313</v>
+        <v>12.43718374989029</v>
       </c>
       <c r="E23">
-        <v>5.214012519266336</v>
+        <v>13.72985136037079</v>
       </c>
       <c r="F23">
-        <v>65.16829369242582</v>
+        <v>83.62743534065598</v>
       </c>
       <c r="G23">
-        <v>1.907288685094719</v>
+        <v>1.968907334358726</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>62.26662094806464</v>
+        <v>29.08944533867735</v>
       </c>
       <c r="L23">
-        <v>4.450150372208511</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>42.80293159078967</v>
+        <v>25.85784517528091</v>
       </c>
       <c r="N23">
-        <v>10.9973461376361</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>51.59269448362067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.45717158466733</v>
+        <v>8.947438900105945</v>
       </c>
       <c r="D24">
-        <v>6.293769215213862</v>
+        <v>11.57576439189522</v>
       </c>
       <c r="E24">
-        <v>5.424575981970955</v>
+        <v>12.60715364152878</v>
       </c>
       <c r="F24">
-        <v>58.88781377306592</v>
+        <v>76.73966337193025</v>
       </c>
       <c r="G24">
-        <v>1.948967013166585</v>
+        <v>2.001411267725698</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>56.68424318128849</v>
+        <v>26.42302975544468</v>
       </c>
       <c r="L24">
-        <v>4.517751654005799</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>38.9274307270555</v>
+        <v>23.53027946304616</v>
       </c>
       <c r="N24">
-        <v>11.31921277820466</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>46.55025775716122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.972288956596149</v>
+        <v>7.971843050132231</v>
       </c>
       <c r="D25">
-        <v>5.949421131543644</v>
+        <v>10.66258757982609</v>
       </c>
       <c r="E25">
-        <v>5.662085256644263</v>
+        <v>11.39232930509275</v>
       </c>
       <c r="F25">
-        <v>52.42478602635921</v>
+        <v>69.25515346736995</v>
       </c>
       <c r="G25">
-        <v>1.991502188485595</v>
+        <v>2.035278961361757</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>50.52484635796753</v>
+        <v>23.47740869816582</v>
       </c>
       <c r="L25">
-        <v>4.590174120343601</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>34.66018037462137</v>
+        <v>20.95473882503006</v>
       </c>
       <c r="N25">
-        <v>11.67475276729898</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>41.51033583001024</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.218419570716991</v>
+        <v>4.913978381267584</v>
       </c>
       <c r="D2">
-        <v>9.993714784701066</v>
+        <v>9.057989185246516</v>
       </c>
       <c r="E2">
-        <v>10.48344718433329</v>
+        <v>9.114680445673812</v>
       </c>
       <c r="F2">
-        <v>63.62563425913126</v>
+        <v>49.0712529992804</v>
       </c>
       <c r="G2">
-        <v>2.059870353879134</v>
+        <v>3.693173006096368</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>21.21318273436741</v>
+        <v>16.64713848202562</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.9724573750422</v>
+        <v>17.10671451007027</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.681954999354833</v>
+        <v>4.753112835057002</v>
       </c>
       <c r="D3">
-        <v>9.53944206517232</v>
+        <v>8.927131470451888</v>
       </c>
       <c r="E3">
-        <v>9.855404114601059</v>
+        <v>8.955456354381605</v>
       </c>
       <c r="F3">
-        <v>59.7152124769522</v>
+        <v>47.83047408277958</v>
       </c>
       <c r="G3">
-        <v>2.076573149393093</v>
+        <v>3.698344639167647</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.60582220775683</v>
+        <v>16.36506082657631</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.56410076442598</v>
+        <v>16.91518427134226</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.338735948689096</v>
+        <v>4.653371124497587</v>
       </c>
       <c r="D4">
-        <v>9.259415974295223</v>
+        <v>8.846183629199663</v>
       </c>
       <c r="E4">
-        <v>9.46338379513613</v>
+        <v>8.858441131010364</v>
       </c>
       <c r="F4">
-        <v>57.26361486735277</v>
+        <v>47.06063999245678</v>
       </c>
       <c r="G4">
-        <v>2.086913486921399</v>
+        <v>3.701674777798273</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.57938052679537</v>
+        <v>16.19777375347098</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.66428762037868</v>
+        <v>16.80316736433052</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.195254981812989</v>
+        <v>4.612552947462382</v>
       </c>
       <c r="D5">
-        <v>9.14497142820483</v>
+        <v>8.81306468848098</v>
       </c>
       <c r="E5">
-        <v>9.302016725583082</v>
+        <v>8.819138639209372</v>
       </c>
       <c r="F5">
-        <v>56.25165480020535</v>
+        <v>46.74530193297803</v>
       </c>
       <c r="G5">
-        <v>2.091157083535146</v>
+        <v>3.7030709397185</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>18.15069975202593</v>
+        <v>16.13119773939055</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.28839217407461</v>
+        <v>16.75897474390471</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.171207862634195</v>
+        <v>4.605766865920367</v>
       </c>
       <c r="D6">
-        <v>9.12594692508387</v>
+        <v>8.807557893370454</v>
       </c>
       <c r="E6">
-        <v>9.275125053785173</v>
+        <v>8.812627773271542</v>
       </c>
       <c r="F6">
-        <v>56.08283962106471</v>
+        <v>46.69285373772485</v>
       </c>
       <c r="G6">
-        <v>2.091863759843474</v>
+        <v>3.70330513876356</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>18.07887719011749</v>
+        <v>16.120242270888</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.2254078152376</v>
+        <v>16.75172590691091</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.336815730331208</v>
+        <v>4.652821237707698</v>
       </c>
       <c r="D7">
-        <v>9.257873928958603</v>
+        <v>8.845737485132815</v>
       </c>
       <c r="E7">
-        <v>9.461214055564762</v>
+        <v>8.857910087002137</v>
       </c>
       <c r="F7">
-        <v>57.25001955087296</v>
+        <v>47.05639328993348</v>
       </c>
       <c r="G7">
-        <v>2.08697058630357</v>
+        <v>3.701693448339801</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.57364185749401</v>
+        <v>16.19686928764975</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.659255960202</v>
+        <v>16.8025654102296</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.036227568479782</v>
+        <v>4.858754423044897</v>
       </c>
       <c r="D8">
-        <v>9.837267161824075</v>
+        <v>9.013005510497472</v>
       </c>
       <c r="E8">
-        <v>10.26820595573179</v>
+        <v>9.059650751927208</v>
       </c>
       <c r="F8">
-        <v>62.28760733307431</v>
+        <v>48.64531668145556</v>
       </c>
       <c r="G8">
-        <v>2.065617367268425</v>
+        <v>3.694924187191575</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.66687091128895</v>
+        <v>16.54871784949473</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.49388406200752</v>
+        <v>17.03954781508195</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.305321902360403</v>
+        <v>5.252017682756503</v>
       </c>
       <c r="D9">
-        <v>10.96910724516895</v>
+        <v>9.335423529023243</v>
       </c>
       <c r="E9">
-        <v>11.80321249434301</v>
+        <v>9.459291513795813</v>
       </c>
       <c r="F9">
-        <v>71.79100915596838</v>
+        <v>51.68178457034963</v>
       </c>
       <c r="G9">
-        <v>2.023963089619603</v>
+        <v>3.682868558640664</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>24.48241449014005</v>
+        <v>17.28065794440982</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.83392761536663</v>
+        <v>17.5461605452735</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.187383101448257</v>
+        <v>5.53102169292889</v>
       </c>
       <c r="D10">
-        <v>11.80768395001213</v>
+        <v>9.567803964318578</v>
       </c>
       <c r="E10">
-        <v>12.91148191777037</v>
+        <v>9.752833037447294</v>
       </c>
       <c r="F10">
-        <v>78.60909211385022</v>
+        <v>53.84428142380946</v>
       </c>
       <c r="G10">
-        <v>1.992721757802211</v>
+        <v>3.674741865342841</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>27.15019895727317</v>
+        <v>17.83731318226659</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>24.16543369413097</v>
+        <v>17.94049221699774</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.581197290368998</v>
+        <v>5.655163857695716</v>
       </c>
       <c r="D11">
-        <v>12.19413123039434</v>
+        <v>9.672317996620015</v>
       </c>
       <c r="E11">
-        <v>13.41515731243492</v>
+        <v>9.885838456690534</v>
       </c>
       <c r="F11">
-        <v>81.69908893080988</v>
+        <v>54.8094179201364</v>
       </c>
       <c r="G11">
-        <v>1.978144171474957</v>
+        <v>3.671200765140494</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>28.34626678872225</v>
+        <v>18.09324715588175</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>25.20952109505293</v>
+        <v>18.12392420765622</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.729627930134219</v>
+        <v>5.701728519052931</v>
       </c>
       <c r="D12">
-        <v>12.34159432373884</v>
+        <v>9.711704237555617</v>
       </c>
       <c r="E12">
-        <v>13.60627303390281</v>
+        <v>9.936086742383857</v>
       </c>
       <c r="F12">
-        <v>82.87038118256082</v>
+        <v>55.1719311621008</v>
       </c>
       <c r="G12">
-        <v>1.972546651863994</v>
+        <v>3.669882031277812</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>28.79795123462924</v>
+        <v>18.19043826517185</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>25.60359545269549</v>
+        <v>18.19390206223185</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.697684897924278</v>
+        <v>5.691720465714118</v>
       </c>
       <c r="D13">
-        <v>12.30977763491135</v>
+        <v>9.703230492089775</v>
       </c>
       <c r="E13">
-        <v>13.5650869266431</v>
+        <v>9.925270773112551</v>
       </c>
       <c r="F13">
-        <v>82.6180153667445</v>
+        <v>55.09399358256206</v>
       </c>
       <c r="G13">
-        <v>1.97375607751139</v>
+        <v>3.670165059813635</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>28.7007042603612</v>
+        <v>18.16949600433589</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>25.51876221254066</v>
+        <v>18.17880917583436</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.593420312882687</v>
+        <v>5.659003928863735</v>
       </c>
       <c r="D14">
-        <v>12.20623778798193</v>
+        <v>9.675562259092684</v>
       </c>
       <c r="E14">
-        <v>13.4308696867893</v>
+        <v>9.889975012513942</v>
       </c>
       <c r="F14">
-        <v>81.7954088575115</v>
+        <v>54.83930305801107</v>
       </c>
       <c r="G14">
-        <v>1.977685373383211</v>
+        <v>3.671091828238897</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>28.3834435396112</v>
+        <v>18.10123827149676</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>25.24196073965506</v>
+        <v>18.1296713621913</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.529476857166959</v>
+        <v>5.638904843829848</v>
       </c>
       <c r="D15">
-        <v>12.14297728532357</v>
+        <v>9.658589250905047</v>
       </c>
       <c r="E15">
-        <v>13.3487237938909</v>
+        <v>9.86833875731657</v>
       </c>
       <c r="F15">
-        <v>81.29179105824102</v>
+        <v>54.68290370867022</v>
       </c>
       <c r="G15">
-        <v>1.980081274112196</v>
+        <v>3.671662386431188</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>28.188993964663</v>
+        <v>18.05946083365901</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>25.07227915928091</v>
+        <v>18.0996382875351</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.161526536385828</v>
+        <v>5.522848776913766</v>
       </c>
       <c r="D16">
-        <v>11.78256097729811</v>
+        <v>9.560948017112498</v>
       </c>
       <c r="E16">
-        <v>12.87859150904191</v>
+        <v>9.744126561418428</v>
       </c>
       <c r="F16">
-        <v>78.4071446237902</v>
+        <v>53.78080806096599</v>
       </c>
       <c r="G16">
-        <v>1.993665100436954</v>
+        <v>3.674976402384523</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>27.07178302853536</v>
+        <v>17.8206318833092</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>24.09695396226984</v>
+        <v>17.92858033153372</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.934133884633551</v>
+        <v>5.450906387923758</v>
       </c>
       <c r="D17">
-        <v>11.56298502348294</v>
+        <v>9.500728125526789</v>
       </c>
       <c r="E17">
-        <v>12.59033779541327</v>
+        <v>9.667760702637505</v>
       </c>
       <c r="F17">
-        <v>76.63630983229186</v>
+        <v>53.22242591702957</v>
       </c>
       <c r="G17">
-        <v>2.001888886995476</v>
+        <v>3.677049201853296</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>26.38274122666529</v>
+        <v>17.67472883714471</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>23.49508088119937</v>
+        <v>17.82463184204489</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.802616817644408</v>
+        <v>5.409267941196025</v>
       </c>
       <c r="D18">
-        <v>11.4371282532414</v>
+        <v>9.465979662180462</v>
       </c>
       <c r="E18">
-        <v>12.42446207023793</v>
+        <v>9.623789788973653</v>
       </c>
       <c r="F18">
-        <v>75.61646869295858</v>
+        <v>52.89952489332488</v>
       </c>
       <c r="G18">
-        <v>2.006586345135363</v>
+        <v>3.678256095186791</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>25.98468170707483</v>
+        <v>17.59107090366785</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>23.14726663983503</v>
+        <v>17.76522847189002</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.757952593913858</v>
+        <v>5.395126858700878</v>
       </c>
       <c r="D19">
-        <v>11.39457993580188</v>
+        <v>9.454195849792612</v>
       </c>
       <c r="E19">
-        <v>12.3682740646136</v>
+        <v>9.608895179412706</v>
       </c>
       <c r="F19">
-        <v>75.27087065859105</v>
+        <v>52.78990747230865</v>
       </c>
       <c r="G19">
-        <v>2.00817187537193</v>
+        <v>3.678667254745463</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>25.84957239932967</v>
+        <v>17.56279426634249</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>23.02919344427793</v>
+        <v>17.74518365268951</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.958413023969527</v>
+        <v>5.458591940372387</v>
       </c>
       <c r="D20">
-        <v>11.58631140440839</v>
+        <v>9.507150321568595</v>
       </c>
       <c r="E20">
-        <v>12.62102830752483</v>
+        <v>9.675895183116751</v>
       </c>
       <c r="F20">
-        <v>76.82493520287755</v>
+        <v>53.28204832153053</v>
       </c>
       <c r="G20">
-        <v>2.001016989729432</v>
+        <v>3.676827031536877</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>26.4562627737009</v>
+        <v>17.69023423196758</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>23.55931327878311</v>
+        <v>17.83565796264016</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.624060890042198</v>
+        <v>5.668625993545487</v>
       </c>
       <c r="D21">
-        <v>12.23661555796076</v>
+        <v>9.683694419370156</v>
       </c>
       <c r="E21">
-        <v>13.47027775879579</v>
+        <v>9.900345761377947</v>
       </c>
       <c r="F21">
-        <v>82.03696938035195</v>
+        <v>54.91419444123297</v>
       </c>
       <c r="G21">
-        <v>1.976533570098995</v>
+        <v>3.670819012845741</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>28.4766525936946</v>
+        <v>18.12128067102497</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>25.32328938174055</v>
+        <v>18.14409084796021</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.05527392681799</v>
+        <v>5.8032822064283</v>
       </c>
       <c r="D22">
-        <v>12.66846759753657</v>
+        <v>9.797954867260875</v>
       </c>
       <c r="E22">
-        <v>14.05803646351582</v>
+        <v>10.04633127716307</v>
       </c>
       <c r="F22">
-        <v>85.45219903876333</v>
+        <v>55.96350814551145</v>
       </c>
       <c r="G22">
-        <v>1.96006522138984</v>
+        <v>3.667021755197287</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>29.79070912605541</v>
+        <v>18.40454376926507</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>26.46928947251979</v>
+        <v>18.34864745593814</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.825329680372176</v>
+        <v>5.731666594095141</v>
       </c>
       <c r="D23">
-        <v>12.43718374989029</v>
+        <v>9.73708057932526</v>
       </c>
       <c r="E23">
-        <v>13.72985136037079</v>
+        <v>9.968494082416546</v>
       </c>
       <c r="F23">
-        <v>83.62743534065598</v>
+        <v>55.40515012197275</v>
       </c>
       <c r="G23">
-        <v>1.968907334358726</v>
+        <v>3.66903665438443</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>29.08944533867735</v>
+        <v>18.25325613416115</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.85784517528091</v>
+        <v>18.23922107989844</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.947438900105945</v>
+        <v>5.455118163894572</v>
       </c>
       <c r="D24">
-        <v>11.57576439189522</v>
+        <v>9.504247241644574</v>
       </c>
       <c r="E24">
-        <v>12.60715364152878</v>
+        <v>9.672217790484728</v>
       </c>
       <c r="F24">
-        <v>76.73966337193025</v>
+        <v>53.25509886507415</v>
       </c>
       <c r="G24">
-        <v>2.001411267725698</v>
+        <v>3.676927427336019</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>26.42302975544468</v>
+        <v>17.68322353751084</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>23.53027946304616</v>
+        <v>17.83067193341812</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.971843050132231</v>
+        <v>5.147141600531079</v>
       </c>
       <c r="D25">
-        <v>10.66258757982609</v>
+        <v>9.248913322095282</v>
       </c>
       <c r="E25">
-        <v>11.39232930509275</v>
+        <v>9.351011104954893</v>
       </c>
       <c r="F25">
-        <v>69.25515346736995</v>
+        <v>50.87098777700513</v>
       </c>
       <c r="G25">
-        <v>2.035278961361757</v>
+        <v>3.686000724787529</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>23.47740869816582</v>
+        <v>17.07884628502352</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.95473882503006</v>
+        <v>17.40496796367382</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.913978381267584</v>
+        <v>7.218419570717067</v>
       </c>
       <c r="D2">
-        <v>9.057989185246516</v>
+        <v>9.993714784701016</v>
       </c>
       <c r="E2">
-        <v>9.114680445673812</v>
+        <v>10.48344718433323</v>
       </c>
       <c r="F2">
-        <v>49.0712529992804</v>
+        <v>63.62563425913113</v>
       </c>
       <c r="G2">
-        <v>3.693173006096368</v>
+        <v>2.059870353879003</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.64713848202562</v>
+        <v>21.21318273436735</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.10671451007027</v>
+        <v>18.97245737504215</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.753112835057002</v>
+        <v>6.681954999354907</v>
       </c>
       <c r="D3">
-        <v>8.927131470451888</v>
+        <v>9.539442065172397</v>
       </c>
       <c r="E3">
-        <v>8.955456354381605</v>
+        <v>9.855404114601093</v>
       </c>
       <c r="F3">
-        <v>47.83047408277958</v>
+        <v>59.71521247695233</v>
       </c>
       <c r="G3">
-        <v>3.698344639167647</v>
+        <v>2.076573149393615</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.36506082657631</v>
+        <v>19.60582220775696</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.91518427134226</v>
+        <v>17.56410076442604</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.653371124497587</v>
+        <v>6.338735948689155</v>
       </c>
       <c r="D4">
-        <v>8.846183629199663</v>
+        <v>9.25941597429528</v>
       </c>
       <c r="E4">
-        <v>8.858441131010364</v>
+        <v>9.463383795136156</v>
       </c>
       <c r="F4">
-        <v>47.06063999245678</v>
+        <v>57.26361486735318</v>
       </c>
       <c r="G4">
-        <v>3.701674777798273</v>
+        <v>2.086913486921392</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.19777375347098</v>
+        <v>18.57938052679547</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.80316736433052</v>
+        <v>16.66428762037871</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.612552947462382</v>
+        <v>6.195254981813015</v>
       </c>
       <c r="D5">
-        <v>8.81306468848098</v>
+        <v>9.14497142820486</v>
       </c>
       <c r="E5">
-        <v>8.819138639209372</v>
+        <v>9.302016725583107</v>
       </c>
       <c r="F5">
-        <v>46.74530193297803</v>
+        <v>56.25165480020542</v>
       </c>
       <c r="G5">
-        <v>3.7030709397185</v>
+        <v>2.091157083535139</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.13119773939055</v>
+        <v>18.15069975202597</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.75897474390471</v>
+        <v>16.2883921740746</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.605766865920367</v>
+        <v>6.17120786263401</v>
       </c>
       <c r="D6">
-        <v>8.807557893370454</v>
+        <v>9.125946925084</v>
       </c>
       <c r="E6">
-        <v>8.812627773271542</v>
+        <v>9.275125053785196</v>
       </c>
       <c r="F6">
-        <v>46.69285373772485</v>
+        <v>56.08283962106487</v>
       </c>
       <c r="G6">
-        <v>3.70330513876356</v>
+        <v>2.09186375984387</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.120242270888</v>
+        <v>18.07887719011752</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.75172590691091</v>
+        <v>16.22540781523763</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.652821237707698</v>
+        <v>6.336815730331467</v>
       </c>
       <c r="D7">
-        <v>8.845737485132815</v>
+        <v>9.257873928958507</v>
       </c>
       <c r="E7">
-        <v>8.857910087002137</v>
+        <v>9.461214055564705</v>
       </c>
       <c r="F7">
-        <v>47.05639328993348</v>
+        <v>57.25001955087286</v>
       </c>
       <c r="G7">
-        <v>3.701693448339801</v>
+        <v>2.086970586303567</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.19686928764975</v>
+        <v>18.57364185749401</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.8025654102296</v>
+        <v>16.65925596020197</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.858754423044897</v>
+        <v>7.036227568479782</v>
       </c>
       <c r="D8">
-        <v>9.013005510497472</v>
+        <v>9.837267161824164</v>
       </c>
       <c r="E8">
-        <v>9.059650751927208</v>
+        <v>10.26820595573176</v>
       </c>
       <c r="F8">
-        <v>48.64531668145556</v>
+        <v>62.28760733307425</v>
       </c>
       <c r="G8">
-        <v>3.694924187191575</v>
+        <v>2.065617367268167</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.54871784949473</v>
+        <v>20.6668709112889</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.03954781508195</v>
+        <v>18.49388406200749</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.252017682756503</v>
+        <v>8.305321902360461</v>
       </c>
       <c r="D9">
-        <v>9.335423529023243</v>
+        <v>10.96910724516901</v>
       </c>
       <c r="E9">
-        <v>9.459291513795813</v>
+        <v>11.80321249434302</v>
       </c>
       <c r="F9">
-        <v>51.68178457034963</v>
+        <v>71.79100915596854</v>
       </c>
       <c r="G9">
-        <v>3.682868558640664</v>
+        <v>2.023963089619607</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.28065794440982</v>
+        <v>24.48241449014017</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.5461605452735</v>
+        <v>21.83392761536665</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.53102169292889</v>
+        <v>9.18738310144826</v>
       </c>
       <c r="D10">
-        <v>9.567803964318578</v>
+        <v>11.80768395001241</v>
       </c>
       <c r="E10">
-        <v>9.752833037447294</v>
+        <v>12.91148191777047</v>
       </c>
       <c r="F10">
-        <v>53.84428142380946</v>
+        <v>78.60909211385156</v>
       </c>
       <c r="G10">
-        <v>3.674741865342841</v>
+        <v>1.992721757802086</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.83731318226659</v>
+        <v>27.1501989572736</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.94049221699774</v>
+        <v>24.1654336941313</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.655163857695716</v>
+        <v>9.581197290368998</v>
       </c>
       <c r="D11">
-        <v>9.672317996620015</v>
+        <v>12.19413123039438</v>
       </c>
       <c r="E11">
-        <v>9.885838456690534</v>
+        <v>13.41515731243489</v>
       </c>
       <c r="F11">
-        <v>54.8094179201364</v>
+        <v>81.69908893080978</v>
       </c>
       <c r="G11">
-        <v>3.671200765140494</v>
+        <v>1.978144171474819</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.09324715588175</v>
+        <v>28.34626678872226</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.12392420765622</v>
+        <v>25.20952109505292</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.701728519052931</v>
+        <v>9.72962793013434</v>
       </c>
       <c r="D12">
-        <v>9.711704237555617</v>
+        <v>12.34159432373889</v>
       </c>
       <c r="E12">
-        <v>9.936086742383857</v>
+        <v>13.60627303390288</v>
       </c>
       <c r="F12">
-        <v>55.1719311621008</v>
+        <v>82.87038118256133</v>
       </c>
       <c r="G12">
-        <v>3.669882031277812</v>
+        <v>1.972546651863989</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.19043826517185</v>
+        <v>28.79795123462945</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.19390206223185</v>
+        <v>25.60359545269564</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.691720465714118</v>
+        <v>9.697684897924233</v>
       </c>
       <c r="D13">
-        <v>9.703230492089775</v>
+        <v>12.30977763491156</v>
       </c>
       <c r="E13">
-        <v>9.925270773112551</v>
+        <v>13.56508692664315</v>
       </c>
       <c r="F13">
-        <v>55.09399358256206</v>
+        <v>82.61801536674557</v>
       </c>
       <c r="G13">
-        <v>3.670165059813635</v>
+        <v>1.973756077511776</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.16949600433589</v>
+        <v>28.7007042603615</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.17880917583436</v>
+        <v>25.51876221254081</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.659003928863735</v>
+        <v>9.593420312882728</v>
       </c>
       <c r="D14">
-        <v>9.675562259092684</v>
+        <v>12.20623778798207</v>
       </c>
       <c r="E14">
-        <v>9.889975012513942</v>
+        <v>13.4308696867894</v>
       </c>
       <c r="F14">
-        <v>54.83930305801107</v>
+        <v>81.79540885751187</v>
       </c>
       <c r="G14">
-        <v>3.671091828238897</v>
+        <v>1.977685373383197</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.10123827149676</v>
+        <v>28.38344353961121</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.1296713621913</v>
+        <v>25.24196073965513</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.638904843829848</v>
+        <v>9.529476857166875</v>
       </c>
       <c r="D15">
-        <v>9.658589250905047</v>
+        <v>12.1429772853235</v>
       </c>
       <c r="E15">
-        <v>9.86833875731657</v>
+        <v>13.34872379389079</v>
       </c>
       <c r="F15">
-        <v>54.68290370867022</v>
+        <v>81.29179105824039</v>
       </c>
       <c r="G15">
-        <v>3.671662386431188</v>
+        <v>1.980081274111924</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.05946083365901</v>
+        <v>28.18899396466285</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.0996382875351</v>
+        <v>25.0722791592808</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.522848776913766</v>
+        <v>9.161526536385844</v>
       </c>
       <c r="D16">
-        <v>9.560948017112498</v>
+        <v>11.78256097729808</v>
       </c>
       <c r="E16">
-        <v>9.744126561418428</v>
+        <v>12.87859150904194</v>
       </c>
       <c r="F16">
-        <v>53.78080806096599</v>
+        <v>78.40714462379059</v>
       </c>
       <c r="G16">
-        <v>3.674976402384523</v>
+        <v>1.993665100436815</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.8206318833092</v>
+        <v>27.07178302853547</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.92858033153372</v>
+        <v>24.09695396226988</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.450906387923758</v>
+        <v>8.934133884633388</v>
       </c>
       <c r="D17">
-        <v>9.500728125526789</v>
+        <v>11.56298502348298</v>
       </c>
       <c r="E17">
-        <v>9.667760702637505</v>
+        <v>12.59033779541317</v>
       </c>
       <c r="F17">
-        <v>53.22242591702957</v>
+        <v>76.63630983229184</v>
       </c>
       <c r="G17">
-        <v>3.677049201853296</v>
+        <v>2.001888886995633</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.67472883714471</v>
+        <v>26.38274122666524</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.82463184204489</v>
+        <v>23.49508088119926</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.409267941196025</v>
+        <v>8.802616817644363</v>
       </c>
       <c r="D18">
-        <v>9.465979662180462</v>
+        <v>11.43712825324126</v>
       </c>
       <c r="E18">
-        <v>9.623789788973653</v>
+        <v>12.42446207023791</v>
       </c>
       <c r="F18">
-        <v>52.89952489332488</v>
+        <v>75.61646869295781</v>
       </c>
       <c r="G18">
-        <v>3.678256095186791</v>
+        <v>2.00658634513526</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.59107090366785</v>
+        <v>25.98468170707472</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.76522847189002</v>
+        <v>23.14726663983498</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.395126858700878</v>
+        <v>8.757952593913917</v>
       </c>
       <c r="D19">
-        <v>9.454195849792612</v>
+        <v>11.39457993580204</v>
       </c>
       <c r="E19">
-        <v>9.608895179412706</v>
+        <v>12.36827406461366</v>
       </c>
       <c r="F19">
-        <v>52.78990747230865</v>
+        <v>75.27087065859183</v>
       </c>
       <c r="G19">
-        <v>3.678667254745463</v>
+        <v>2.008171875371666</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.56279426634249</v>
+        <v>25.84957239932985</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.74518365268951</v>
+        <v>23.02919344427798</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.458591940372387</v>
+        <v>8.958413023969444</v>
       </c>
       <c r="D20">
-        <v>9.507150321568595</v>
+        <v>11.58631140440853</v>
       </c>
       <c r="E20">
-        <v>9.675895183116751</v>
+        <v>12.62102830752481</v>
       </c>
       <c r="F20">
-        <v>53.28204832153053</v>
+        <v>76.82493520287808</v>
       </c>
       <c r="G20">
-        <v>3.676827031536877</v>
+        <v>2.001016989729298</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.69023423196758</v>
+        <v>26.45626277370094</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.83565796264016</v>
+        <v>23.55931327878309</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.668625993545487</v>
+        <v>9.624060890042269</v>
       </c>
       <c r="D21">
-        <v>9.683694419370156</v>
+        <v>12.23661555796081</v>
       </c>
       <c r="E21">
-        <v>9.900345761377947</v>
+        <v>13.47027775879581</v>
       </c>
       <c r="F21">
-        <v>54.91419444123297</v>
+        <v>82.03696938035242</v>
       </c>
       <c r="G21">
-        <v>3.670819012845741</v>
+        <v>1.976533570099004</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.12128067102497</v>
+        <v>28.4766525936946</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.14409084796021</v>
+        <v>25.32328938174058</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.8032822064283</v>
+        <v>10.05527392681799</v>
       </c>
       <c r="D22">
-        <v>9.797954867260875</v>
+        <v>12.66846759753658</v>
       </c>
       <c r="E22">
-        <v>10.04633127716307</v>
+        <v>14.05803646351575</v>
       </c>
       <c r="F22">
-        <v>55.96350814551145</v>
+        <v>85.45219903876324</v>
       </c>
       <c r="G22">
-        <v>3.667021755197287</v>
+        <v>1.960065221389706</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.40454376926507</v>
+        <v>29.79070912605532</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.34864745593814</v>
+        <v>26.46928947251968</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.731666594095141</v>
+        <v>9.825329680372407</v>
       </c>
       <c r="D23">
-        <v>9.73708057932526</v>
+        <v>12.43718374989028</v>
       </c>
       <c r="E23">
-        <v>9.968494082416546</v>
+        <v>13.72985136037084</v>
       </c>
       <c r="F23">
-        <v>55.40515012197275</v>
+        <v>83.62743534065605</v>
       </c>
       <c r="G23">
-        <v>3.66903665438443</v>
+        <v>1.968907334358746</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.25325613416115</v>
+        <v>29.08944533867743</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.23922107989844</v>
+        <v>25.85784517528091</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.455118163894572</v>
+        <v>8.947438900105933</v>
       </c>
       <c r="D24">
-        <v>9.504247241644574</v>
+        <v>11.57576439189529</v>
       </c>
       <c r="E24">
-        <v>9.672217790484728</v>
+        <v>12.60715364152876</v>
       </c>
       <c r="F24">
-        <v>53.25509886507415</v>
+        <v>76.7396633719304</v>
       </c>
       <c r="G24">
-        <v>3.676927427336019</v>
+        <v>2.001411267725413</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.68322353751084</v>
+        <v>26.42302975544458</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.83067193341812</v>
+        <v>23.53027946304611</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.147141600531079</v>
+        <v>7.971843050132295</v>
       </c>
       <c r="D25">
-        <v>9.248913322095282</v>
+        <v>10.66258757982617</v>
       </c>
       <c r="E25">
-        <v>9.351011104954893</v>
+        <v>11.39232930509281</v>
       </c>
       <c r="F25">
-        <v>50.87098777700513</v>
+        <v>69.25515346737049</v>
       </c>
       <c r="G25">
-        <v>3.686000724787529</v>
+        <v>2.035278961361749</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.07884628502352</v>
+        <v>23.4774086981659</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.40496796367382</v>
+        <v>20.95473882503011</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.218419570717067</v>
+        <v>9.629671851578943</v>
       </c>
       <c r="D2">
-        <v>9.993714784701016</v>
+        <v>5.003845487355427</v>
       </c>
       <c r="E2">
-        <v>10.48344718433323</v>
+        <v>9.749533362036567</v>
       </c>
       <c r="F2">
-        <v>63.62563425913113</v>
+        <v>18.03687906991114</v>
       </c>
       <c r="G2">
-        <v>2.059870353879003</v>
+        <v>22.59472163568813</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.737658086322207</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.775582267708706</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.899769972671974</v>
       </c>
       <c r="K2">
-        <v>21.21318273436735</v>
+        <v>16.19215368542105</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.97245737504215</v>
+        <v>16.9500800301327</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.096070977743705</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.45142754051613</v>
+      </c>
+      <c r="P2">
+        <v>12.76112111121556</v>
+      </c>
+      <c r="Q2">
+        <v>14.57506763371273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.681954999354907</v>
+        <v>9.299992149561875</v>
       </c>
       <c r="D3">
-        <v>9.539442065172397</v>
+        <v>4.811061786595705</v>
       </c>
       <c r="E3">
-        <v>9.855404114601093</v>
+        <v>9.517817658207951</v>
       </c>
       <c r="F3">
-        <v>59.71521247695233</v>
+        <v>17.6254158765307</v>
       </c>
       <c r="G3">
-        <v>2.076573149393615</v>
+        <v>22.05071222193952</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.92119531747195</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.6216483675238</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.890605842045094</v>
       </c>
       <c r="K3">
-        <v>19.60582220775696</v>
+        <v>15.97551576684935</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.56410076442604</v>
+        <v>15.90950038765475</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.036482163268013</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.6974481539981</v>
+      </c>
+      <c r="P3">
+        <v>12.77905020412344</v>
+      </c>
+      <c r="Q3">
+        <v>14.44938140209226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.338735948689155</v>
+        <v>9.087028703698346</v>
       </c>
       <c r="D4">
-        <v>9.25941597429528</v>
+        <v>4.688166692635565</v>
       </c>
       <c r="E4">
-        <v>9.463383795136156</v>
+        <v>9.371021529822771</v>
       </c>
       <c r="F4">
-        <v>57.26361486735318</v>
+        <v>17.37584161680122</v>
       </c>
       <c r="G4">
-        <v>2.086913486921392</v>
+        <v>21.72007603115174</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.038222850109952</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.523903345806954</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.88771109112526</v>
       </c>
       <c r="K4">
-        <v>18.57938052679547</v>
+        <v>15.84384831139093</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.66428762037871</v>
+        <v>15.23241348367322</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.999536954982196</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.21143065356579</v>
+      </c>
+      <c r="P4">
+        <v>12.79279217482092</v>
+      </c>
+      <c r="Q4">
+        <v>14.37715344609864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.195254981813015</v>
+        <v>8.988444824926225</v>
       </c>
       <c r="D5">
-        <v>9.14497142820486</v>
+        <v>4.638154013187994</v>
       </c>
       <c r="E5">
-        <v>9.302016725583107</v>
+        <v>9.307730910956336</v>
       </c>
       <c r="F5">
-        <v>56.25165480020542</v>
+        <v>17.26920440488189</v>
       </c>
       <c r="G5">
-        <v>2.091157083535139</v>
+        <v>21.5758663062679</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.08739524331422</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.483864535876522</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.885585249202732</v>
       </c>
       <c r="K5">
-        <v>18.15069975202597</v>
+        <v>15.78412337540976</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.2883921740746</v>
+        <v>14.94460258186559</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.984881869109467</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13.00458225575365</v>
+      </c>
+      <c r="P5">
+        <v>12.79984620038828</v>
+      </c>
+      <c r="Q5">
+        <v>14.34476380931149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.17120786263401</v>
+        <v>8.960647708629621</v>
       </c>
       <c r="D6">
-        <v>9.125946925084</v>
+        <v>4.631219155005274</v>
       </c>
       <c r="E6">
-        <v>9.275125053785196</v>
+        <v>9.294251156543044</v>
       </c>
       <c r="F6">
-        <v>56.08283962106487</v>
+        <v>17.24443299050715</v>
       </c>
       <c r="G6">
-        <v>2.09186375984387</v>
+        <v>21.53917464486879</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.096091477301758</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.478135837478783</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.883293008201401</v>
       </c>
       <c r="K6">
-        <v>18.07887719011752</v>
+        <v>15.76634580171469</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.22540781523763</v>
+        <v>14.89337691575054</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.983044675753711</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.96605027244074</v>
+      </c>
+      <c r="P6">
+        <v>12.80201683103297</v>
+      </c>
+      <c r="Q6">
+        <v>14.33433525828184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.336815730331467</v>
+        <v>9.055244688749854</v>
       </c>
       <c r="D7">
-        <v>9.257873928958507</v>
+        <v>4.691378661333908</v>
       </c>
       <c r="E7">
-        <v>9.461214055564705</v>
+        <v>9.362313978683066</v>
       </c>
       <c r="F7">
-        <v>57.25001955087286</v>
+        <v>17.35509064017164</v>
       </c>
       <c r="G7">
-        <v>2.086970586303567</v>
+        <v>21.68340109433828</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.040129997739065</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.525596567805062</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.88228269730139</v>
       </c>
       <c r="K7">
-        <v>18.57364185749401</v>
+        <v>15.82159737276841</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.65925596020197</v>
+        <v>15.22092876944621</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.000983382732048</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.19834731560821</v>
+      </c>
+      <c r="P7">
+        <v>12.79555038621213</v>
+      </c>
+      <c r="Q7">
+        <v>14.36275884288514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.036227568479782</v>
+        <v>9.479500711426674</v>
       </c>
       <c r="D8">
-        <v>9.837267161824164</v>
+        <v>4.943292181943539</v>
       </c>
       <c r="E8">
-        <v>10.26820595573176</v>
+        <v>9.660556568789872</v>
       </c>
       <c r="F8">
-        <v>62.28760733307425</v>
+        <v>17.86957785090815</v>
       </c>
       <c r="G8">
-        <v>2.065617367268167</v>
+        <v>22.3618755597365</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.801617312858967</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.725452141765214</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.888936574497102</v>
       </c>
       <c r="K8">
-        <v>20.6668709112889</v>
+        <v>16.08928758926006</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.49388406200749</v>
+        <v>16.58982747376306</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.077780953062504</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>14.18352452285837</v>
+      </c>
+      <c r="P8">
+        <v>12.77044986034887</v>
+      </c>
+      <c r="Q8">
+        <v>14.51245970123881</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.305321902360461</v>
+        <v>10.27643315270196</v>
       </c>
       <c r="D9">
-        <v>10.96910724516901</v>
+        <v>5.393524754698711</v>
       </c>
       <c r="E9">
-        <v>11.80321249434302</v>
+        <v>10.22121230066757</v>
       </c>
       <c r="F9">
-        <v>71.79100915596854</v>
+        <v>18.93108204154803</v>
       </c>
       <c r="G9">
-        <v>2.023963089619607</v>
+        <v>23.77269115983504</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.75077841916737</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.089723069456348</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.933913994266064</v>
       </c>
       <c r="K9">
-        <v>24.48241449014017</v>
+        <v>16.66079553540514</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.83392761536665</v>
+        <v>18.98262525168047</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.222584585572473</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>15.94383563933566</v>
+      </c>
+      <c r="P9">
+        <v>12.73848381331645</v>
+      </c>
+      <c r="Q9">
+        <v>14.87018102183221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.18738310144826</v>
+        <v>10.70918581738278</v>
       </c>
       <c r="D10">
-        <v>11.80768395001241</v>
+        <v>5.718187910669148</v>
       </c>
       <c r="E10">
-        <v>12.91148191777047</v>
+        <v>10.46612766403594</v>
       </c>
       <c r="F10">
-        <v>78.60909211385156</v>
+        <v>19.62612713635504</v>
       </c>
       <c r="G10">
-        <v>1.992721757802086</v>
+        <v>24.65249930170274</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.035574955788849</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.338185205717102</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.954088184350576</v>
       </c>
       <c r="K10">
-        <v>27.1501989572736</v>
+        <v>16.99173360969925</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>24.1654336941313</v>
+        <v>20.53399095292071</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.265371363066683</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>17.00303348493523</v>
+      </c>
+      <c r="P10">
+        <v>12.74939402361928</v>
+      </c>
+      <c r="Q10">
+        <v>15.08850331998687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.581197290368998</v>
+        <v>10.15057935359855</v>
       </c>
       <c r="D11">
-        <v>12.19413123039438</v>
+        <v>6.007038505536063</v>
       </c>
       <c r="E11">
-        <v>13.41515731243489</v>
+        <v>9.458233110249937</v>
       </c>
       <c r="F11">
-        <v>81.69908893080978</v>
+        <v>19.20983963860647</v>
       </c>
       <c r="G11">
-        <v>1.978144171474819</v>
+        <v>23.74603262891466</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.901958241011877</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.407266218027972</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.742109675527141</v>
       </c>
       <c r="K11">
-        <v>28.34626678872226</v>
+        <v>16.40067108546149</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>25.20952109505292</v>
+        <v>21.03939859069705</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.832106441271563</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>16.50576003533423</v>
+      </c>
+      <c r="P11">
+        <v>12.93112696991138</v>
+      </c>
+      <c r="Q11">
+        <v>14.63021689044532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.72962793013434</v>
+        <v>9.643176426172955</v>
       </c>
       <c r="D12">
-        <v>12.34159432373889</v>
+        <v>6.182138515789227</v>
       </c>
       <c r="E12">
-        <v>13.60627303390288</v>
+        <v>8.710009145394187</v>
       </c>
       <c r="F12">
-        <v>82.87038118256133</v>
+        <v>18.72538403153742</v>
       </c>
       <c r="G12">
-        <v>1.972546651863989</v>
+        <v>22.82290046577528</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.16241044942375</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.414803761626491</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.563062267938129</v>
       </c>
       <c r="K12">
-        <v>28.79795123462945</v>
+        <v>15.85612072583856</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>25.60359545269564</v>
+        <v>21.159742611489</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.591241728437931</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.86977102304231</v>
+      </c>
+      <c r="P12">
+        <v>13.08741022356008</v>
+      </c>
+      <c r="Q12">
+        <v>14.20819809420708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.697684897924233</v>
+        <v>9.09855590942076</v>
       </c>
       <c r="D13">
-        <v>12.30977763491156</v>
+        <v>6.288777108634251</v>
       </c>
       <c r="E13">
-        <v>13.56508692664315</v>
+        <v>8.137660568662461</v>
       </c>
       <c r="F13">
-        <v>82.61801536674557</v>
+        <v>18.1213131616036</v>
       </c>
       <c r="G13">
-        <v>1.973756077511776</v>
+        <v>21.76365755239557</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.489476880490017</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.378273185650857</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.389781494451181</v>
       </c>
       <c r="K13">
-        <v>28.7007042603615</v>
+        <v>15.27901834073476</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>25.51876221254081</v>
+        <v>20.98652233382873</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.500322961991764</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.05815377888655</v>
+      </c>
+      <c r="P13">
+        <v>13.23367769860872</v>
+      </c>
+      <c r="Q13">
+        <v>13.76413090096466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.593420312882728</v>
+        <v>8.695889995788823</v>
       </c>
       <c r="D14">
-        <v>12.20623778798207</v>
+        <v>6.334626021159728</v>
       </c>
       <c r="E14">
-        <v>13.4308696867894</v>
+        <v>7.862807667889749</v>
       </c>
       <c r="F14">
-        <v>81.79540885751187</v>
+        <v>17.63513857452332</v>
       </c>
       <c r="G14">
-        <v>1.977685373383197</v>
+        <v>20.94504839492849</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.440872178981924</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.333733998546076</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.270253675880815</v>
       </c>
       <c r="K14">
-        <v>28.38344353961121</v>
+        <v>14.85518895344633</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>25.24196073965513</v>
+        <v>20.72839541824036</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.527765609314038</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>14.3974522997892</v>
+      </c>
+      <c r="P14">
+        <v>13.3322249729274</v>
+      </c>
+      <c r="Q14">
+        <v>13.43979254248092</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.529476857166875</v>
+        <v>8.579739884473913</v>
       </c>
       <c r="D15">
-        <v>12.1429772853235</v>
+        <v>6.332339355549683</v>
       </c>
       <c r="E15">
-        <v>13.34872379389079</v>
+        <v>7.812882749836808</v>
       </c>
       <c r="F15">
-        <v>81.29179105824039</v>
+        <v>17.4856263974521</v>
       </c>
       <c r="G15">
-        <v>1.980081274111924</v>
+        <v>20.70655673893046</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.679298826727398</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.314002819803312</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.241255706243232</v>
       </c>
       <c r="K15">
-        <v>28.18899396466285</v>
+        <v>14.73917912988619</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>25.0722791592808</v>
+        <v>20.59926573538404</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.545476842636499</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.19467469958202</v>
+      </c>
+      <c r="P15">
+        <v>13.35376261570963</v>
+      </c>
+      <c r="Q15">
+        <v>13.35282821163247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.161526536385844</v>
+        <v>8.473039072030353</v>
       </c>
       <c r="D16">
-        <v>11.78256097729808</v>
+        <v>6.183950368161137</v>
       </c>
       <c r="E16">
-        <v>12.87859150904194</v>
+        <v>7.806785027609177</v>
       </c>
       <c r="F16">
-        <v>78.40714462379059</v>
+        <v>17.27407540815122</v>
       </c>
       <c r="G16">
-        <v>1.993665100436815</v>
+        <v>20.48085022112591</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.462522010626221</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.216970051937703</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.263458159378047</v>
       </c>
       <c r="K16">
-        <v>27.07178302853547</v>
+        <v>14.69374278478848</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>24.09695396226988</v>
+        <v>19.9853860985612</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.53885807753772</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.85993442869281</v>
+      </c>
+      <c r="P16">
+        <v>13.30958184252048</v>
+      </c>
+      <c r="Q16">
+        <v>13.33326394664795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.934133884633388</v>
+        <v>8.604744145529649</v>
       </c>
       <c r="D17">
-        <v>11.56298502348298</v>
+        <v>6.042832044964075</v>
       </c>
       <c r="E17">
-        <v>12.59033779541317</v>
+        <v>7.924512938794479</v>
       </c>
       <c r="F17">
-        <v>76.63630983229184</v>
+        <v>17.37771026096081</v>
       </c>
       <c r="G17">
-        <v>2.001888886995633</v>
+        <v>20.75487160130495</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.712775123179493</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.166159918615365</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.344250588997179</v>
       </c>
       <c r="K17">
-        <v>26.38274122666524</v>
+        <v>14.88550612410438</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>23.49508088119926</v>
+        <v>19.64769976944897</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.506405060453303</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.96664140453028</v>
+      </c>
+      <c r="P17">
+        <v>13.22485345573006</v>
+      </c>
+      <c r="Q17">
+        <v>13.49257761580873</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.802616817644363</v>
+        <v>8.99116476237557</v>
       </c>
       <c r="D18">
-        <v>11.43712825324126</v>
+        <v>5.891256868639541</v>
       </c>
       <c r="E18">
-        <v>12.42446207023791</v>
+        <v>8.286651149299541</v>
       </c>
       <c r="F18">
-        <v>75.61646869295781</v>
+        <v>17.77364134503161</v>
       </c>
       <c r="G18">
-        <v>2.00658634513526</v>
+        <v>21.50869659728908</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.434761341032416</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.148749703981236</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.487409842959448</v>
       </c>
       <c r="K18">
-        <v>25.98468170707472</v>
+        <v>15.31865495763067</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>23.14726663983498</v>
+        <v>19.5243106356369</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.52824878016126</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.47528976057437</v>
+      </c>
+      <c r="P18">
+        <v>13.09606888618347</v>
+      </c>
+      <c r="Q18">
+        <v>13.83121312796735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.757952593913917</v>
+        <v>9.52795412465437</v>
       </c>
       <c r="D19">
-        <v>11.39457993580204</v>
+        <v>5.752450424600643</v>
       </c>
       <c r="E19">
-        <v>12.36827406461366</v>
+        <v>8.964486077874462</v>
       </c>
       <c r="F19">
-        <v>75.27087065859183</v>
+        <v>18.33529549542981</v>
       </c>
       <c r="G19">
-        <v>2.008171875371666</v>
+        <v>22.52512568869538</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.010900617196831</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.169151623256036</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.660944364031876</v>
       </c>
       <c r="K19">
-        <v>25.84957239932985</v>
+        <v>15.88048316562478</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>23.02919344427798</v>
+        <v>19.57338375979257</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.706098138387905</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>15.24377098553301</v>
+      </c>
+      <c r="P19">
+        <v>12.95296943391772</v>
+      </c>
+      <c r="Q19">
+        <v>14.26416510441925</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.958413023969444</v>
+        <v>10.51352207054724</v>
       </c>
       <c r="D20">
-        <v>11.58631140440853</v>
+        <v>5.64609632686064</v>
       </c>
       <c r="E20">
-        <v>12.62102830752481</v>
+        <v>10.37535200946762</v>
       </c>
       <c r="F20">
-        <v>76.82493520287808</v>
+        <v>19.38557315250009</v>
       </c>
       <c r="G20">
-        <v>2.001016989729298</v>
+        <v>24.31777665258318</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.956923662734973</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.28098197589171</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.930304644861126</v>
       </c>
       <c r="K20">
-        <v>26.45626277370094</v>
+        <v>16.8385209997497</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>23.55931327878309</v>
+        <v>20.11941090745517</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.256299763221287</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.70142239597638</v>
+      </c>
+      <c r="P20">
+        <v>12.75588495742933</v>
+      </c>
+      <c r="Q20">
+        <v>14.98543676927647</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.624060890042269</v>
+        <v>10.97695404874118</v>
       </c>
       <c r="D21">
-        <v>12.23661555796081</v>
+        <v>5.85947679422658</v>
       </c>
       <c r="E21">
-        <v>13.47027775879581</v>
+        <v>10.77516119425972</v>
       </c>
       <c r="F21">
-        <v>82.03696938035242</v>
+        <v>20.05826828798503</v>
       </c>
       <c r="G21">
-        <v>1.976533570099004</v>
+        <v>25.24170263594073</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.18425972923807</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.474035235294763</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.992638167998326</v>
       </c>
       <c r="K21">
-        <v>28.4766525936946</v>
+        <v>17.23478807660251</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>25.32328938174058</v>
+        <v>21.28384290456353</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.384915500359514</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17.65236236097245</v>
+      </c>
+      <c r="P21">
+        <v>12.73926910155775</v>
+      </c>
+      <c r="Q21">
+        <v>15.26684030917115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.05527392681799</v>
+        <v>11.25813493655181</v>
       </c>
       <c r="D22">
-        <v>12.66846759753658</v>
+        <v>5.998469771456185</v>
       </c>
       <c r="E22">
-        <v>14.05803646351575</v>
+        <v>10.96890723152299</v>
       </c>
       <c r="F22">
-        <v>85.45219903876324</v>
+        <v>20.47661990948162</v>
       </c>
       <c r="G22">
-        <v>1.960065221389706</v>
+        <v>25.80737198138304</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.325742307232013</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.592136710612</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.030379754444853</v>
       </c>
       <c r="K22">
-        <v>29.79070912605532</v>
+        <v>17.47675925659317</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>26.46928947251968</v>
+        <v>22.00914699354835</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.434276773915022</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>18.20429779426028</v>
+      </c>
+      <c r="P22">
+        <v>12.73643144157299</v>
+      </c>
+      <c r="Q22">
+        <v>15.44001887884162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.825329680372407</v>
+        <v>11.13884654858199</v>
       </c>
       <c r="D23">
-        <v>12.43718374989028</v>
+        <v>5.920837172308077</v>
       </c>
       <c r="E23">
-        <v>13.72985136037084</v>
+        <v>10.87389117160711</v>
       </c>
       <c r="F23">
-        <v>83.62743534065605</v>
+        <v>20.27318926934109</v>
       </c>
       <c r="G23">
-        <v>1.968907334358746</v>
+        <v>25.54087984477012</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.251694402089066</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.526558571291136</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.016126277547537</v>
       </c>
       <c r="K23">
-        <v>29.08944533867743</v>
+        <v>17.37075203003369</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.85784517528091</v>
+        <v>21.63181103047319</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.406012161707643</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>17.92110651023808</v>
+      </c>
+      <c r="P23">
+        <v>12.73389846197348</v>
+      </c>
+      <c r="Q23">
+        <v>15.36252202239016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.947438900105933</v>
+        <v>10.61980497436637</v>
       </c>
       <c r="D24">
-        <v>11.57576439189529</v>
+        <v>5.623376791069839</v>
       </c>
       <c r="E24">
-        <v>12.60715364152876</v>
+        <v>10.49182136347331</v>
       </c>
       <c r="F24">
-        <v>76.7396633719304</v>
+        <v>19.47098374813246</v>
       </c>
       <c r="G24">
-        <v>2.001411267725413</v>
+        <v>24.47508270609746</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.962925202261594</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.277190374933434</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.958517656244117</v>
       </c>
       <c r="K24">
-        <v>26.42302975544458</v>
+        <v>16.93371169170208</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>23.53027946304611</v>
+        <v>20.12500991279623</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.301345253795822</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.78856385642562</v>
+      </c>
+      <c r="P24">
+        <v>12.73620745116742</v>
+      </c>
+      <c r="Q24">
+        <v>15.05447579437173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.971843050132295</v>
+        <v>10.02058963771869</v>
       </c>
       <c r="D25">
-        <v>10.66258757982617</v>
+        <v>5.282303250294403</v>
       </c>
       <c r="E25">
-        <v>11.39232930509281</v>
+        <v>10.0607162854038</v>
       </c>
       <c r="F25">
-        <v>69.25515346737049</v>
+        <v>18.60997421551975</v>
       </c>
       <c r="G25">
-        <v>2.035278961361749</v>
+        <v>23.33133249329913</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.637180342247176</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.997550655278291</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.909651515955936</v>
       </c>
       <c r="K25">
-        <v>23.4774086981659</v>
+        <v>16.46831153460329</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.95473882503011</v>
+        <v>18.35624780682265</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.186711109359526</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>15.47238707792752</v>
+      </c>
+      <c r="P25">
+        <v>12.75003704763572</v>
+      </c>
+      <c r="Q25">
+        <v>14.74469878697785</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.629671851578943</v>
+        <v>8.493679648749426</v>
       </c>
       <c r="D2">
-        <v>5.003845487355427</v>
+        <v>5.100653489112986</v>
       </c>
       <c r="E2">
-        <v>9.749533362036567</v>
+        <v>9.47486674470022</v>
       </c>
       <c r="F2">
-        <v>18.03687906991114</v>
+        <v>17.44165270210488</v>
       </c>
       <c r="G2">
-        <v>22.59472163568813</v>
+        <v>20.89662498567481</v>
       </c>
       <c r="H2">
-        <v>1.737658086322207</v>
+        <v>1.713603153509526</v>
       </c>
       <c r="I2">
-        <v>2.775582267708706</v>
+        <v>2.816434039661731</v>
       </c>
       <c r="J2">
-        <v>8.899769972671974</v>
+        <v>9.188256382613796</v>
       </c>
       <c r="K2">
-        <v>16.19215368542105</v>
+        <v>15.43722210721609</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.33694634349494</v>
       </c>
       <c r="M2">
-        <v>16.9500800301327</v>
+        <v>9.644158471562553</v>
       </c>
       <c r="N2">
-        <v>6.096070977743705</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>14.45142754051613</v>
+        <v>16.76230010750096</v>
       </c>
       <c r="P2">
-        <v>12.76112111121556</v>
+        <v>6.224462320445956</v>
       </c>
       <c r="Q2">
-        <v>14.57506763371273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.14747529996939</v>
+      </c>
+      <c r="R2">
+        <v>12.82856946845723</v>
+      </c>
+      <c r="S2">
+        <v>14.12062906223007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.299992149561875</v>
+        <v>8.250875090364511</v>
       </c>
       <c r="D3">
-        <v>4.811061786595705</v>
+        <v>4.886229460020065</v>
       </c>
       <c r="E3">
-        <v>9.517817658207951</v>
+        <v>9.274931587484209</v>
       </c>
       <c r="F3">
-        <v>17.6254158765307</v>
+        <v>17.09531814069755</v>
       </c>
       <c r="G3">
-        <v>22.05071222193952</v>
+        <v>20.47643174391151</v>
       </c>
       <c r="H3">
-        <v>1.92119531747195</v>
+        <v>1.882152733557577</v>
       </c>
       <c r="I3">
-        <v>2.6216483675238</v>
+        <v>2.681081572694572</v>
       </c>
       <c r="J3">
-        <v>8.890605842045094</v>
+        <v>9.168228797650759</v>
       </c>
       <c r="K3">
-        <v>15.97551576684935</v>
+        <v>15.28974239148199</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.3766635738027</v>
       </c>
       <c r="M3">
-        <v>15.90950038765475</v>
+        <v>9.366752953377757</v>
       </c>
       <c r="N3">
-        <v>6.036482163268013</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>13.6974481539981</v>
+        <v>15.75396806225784</v>
       </c>
       <c r="P3">
-        <v>12.77905020412344</v>
+        <v>6.167392192345321</v>
       </c>
       <c r="Q3">
-        <v>14.44938140209226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.42519312086806</v>
+      </c>
+      <c r="R3">
+        <v>12.8231859269543</v>
+      </c>
+      <c r="S3">
+        <v>14.04093790657314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.087028703698346</v>
+        <v>8.092368886426751</v>
       </c>
       <c r="D4">
-        <v>4.688166692635565</v>
+        <v>4.749455471968188</v>
       </c>
       <c r="E4">
-        <v>9.371021529822771</v>
+        <v>9.148059346061064</v>
       </c>
       <c r="F4">
-        <v>17.37584161680122</v>
+        <v>16.88545097081375</v>
       </c>
       <c r="G4">
-        <v>21.72007603115174</v>
+        <v>20.22460431368842</v>
       </c>
       <c r="H4">
-        <v>2.038222850109952</v>
+        <v>1.989684426505442</v>
       </c>
       <c r="I4">
-        <v>2.523903345806954</v>
+        <v>2.595236396148557</v>
       </c>
       <c r="J4">
-        <v>8.88771109112526</v>
+        <v>9.156898759824946</v>
       </c>
       <c r="K4">
-        <v>15.84384831139093</v>
+        <v>15.19974752713509</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.39911924562751</v>
       </c>
       <c r="M4">
-        <v>15.23241348367322</v>
+        <v>9.213391407906434</v>
       </c>
       <c r="N4">
-        <v>5.999536954982196</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>13.21143065356579</v>
+        <v>15.09794933253769</v>
       </c>
       <c r="P4">
-        <v>12.79279217482092</v>
+        <v>6.132402453765901</v>
       </c>
       <c r="Q4">
-        <v>14.37715344609864</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.95922505603084</v>
+      </c>
+      <c r="R4">
+        <v>12.82285835450111</v>
+      </c>
+      <c r="S4">
+        <v>13.99612882318162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.988444824926225</v>
+        <v>8.016764741745838</v>
       </c>
       <c r="D5">
-        <v>4.638154013187994</v>
+        <v>4.693673575796288</v>
       </c>
       <c r="E5">
-        <v>9.307730910956336</v>
+        <v>9.093056557300454</v>
       </c>
       <c r="F5">
-        <v>17.26920440488189</v>
+        <v>16.79498416273647</v>
       </c>
       <c r="G5">
-        <v>21.5758663062679</v>
+        <v>20.11318766023506</v>
       </c>
       <c r="H5">
-        <v>2.08739524331422</v>
+        <v>2.034894030094926</v>
       </c>
       <c r="I5">
-        <v>2.483864535876522</v>
+        <v>2.560443620777874</v>
       </c>
       <c r="J5">
-        <v>8.885585249202732</v>
+        <v>9.150933791636469</v>
       </c>
       <c r="K5">
-        <v>15.78412337540976</v>
+        <v>15.15702609519308</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.40252579509779</v>
       </c>
       <c r="M5">
-        <v>14.94460258186559</v>
+        <v>9.151320960336285</v>
       </c>
       <c r="N5">
-        <v>5.984881869109467</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>13.00458225575365</v>
+        <v>14.8190835547516</v>
       </c>
       <c r="P5">
-        <v>12.79984620038828</v>
+        <v>6.118677576394752</v>
       </c>
       <c r="Q5">
-        <v>14.34476380931149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.76070127952091</v>
+      </c>
+      <c r="R5">
+        <v>12.82428179144523</v>
+      </c>
+      <c r="S5">
+        <v>13.97482056751431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.960647708629621</v>
+        <v>7.993489649874141</v>
       </c>
       <c r="D6">
-        <v>4.631219155005274</v>
+        <v>4.685806039995157</v>
       </c>
       <c r="E6">
-        <v>9.294251156543044</v>
+        <v>9.081052308539405</v>
       </c>
       <c r="F6">
-        <v>17.24443299050715</v>
+        <v>16.77301190511209</v>
       </c>
       <c r="G6">
-        <v>21.53917464486879</v>
+        <v>20.08205393621444</v>
       </c>
       <c r="H6">
-        <v>2.096091477301758</v>
+        <v>2.042905946186211</v>
       </c>
       <c r="I6">
-        <v>2.478135837478783</v>
+        <v>2.555964605284304</v>
       </c>
       <c r="J6">
-        <v>8.883293008201401</v>
+        <v>9.148015898844317</v>
       </c>
       <c r="K6">
-        <v>15.76634580171469</v>
+        <v>15.14235948329815</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.39664825828098</v>
       </c>
       <c r="M6">
-        <v>14.89337691575054</v>
+        <v>9.136189731505699</v>
       </c>
       <c r="N6">
-        <v>5.983044675753711</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>12.96605027244074</v>
+        <v>14.76940421844384</v>
       </c>
       <c r="P6">
-        <v>12.80201683103297</v>
+        <v>6.117037235307672</v>
       </c>
       <c r="Q6">
-        <v>14.33433525828184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.72358442190488</v>
+      </c>
+      <c r="R6">
+        <v>12.82557004072127</v>
+      </c>
+      <c r="S6">
+        <v>13.96637326490572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.055244688749854</v>
+        <v>8.065440978703423</v>
       </c>
       <c r="D7">
-        <v>4.691378661333908</v>
+        <v>4.755110024828062</v>
       </c>
       <c r="E7">
-        <v>9.362313978683066</v>
+        <v>9.140453961876625</v>
       </c>
       <c r="F7">
-        <v>17.35509064017164</v>
+        <v>16.85371443303004</v>
       </c>
       <c r="G7">
-        <v>21.68340109433828</v>
+        <v>20.27594059417463</v>
       </c>
       <c r="H7">
-        <v>2.040129997739065</v>
+        <v>1.99192116479745</v>
       </c>
       <c r="I7">
-        <v>2.525596567805062</v>
+        <v>2.597494235195802</v>
       </c>
       <c r="J7">
-        <v>8.88228269730139</v>
+        <v>9.116185962568505</v>
       </c>
       <c r="K7">
-        <v>15.82159737276841</v>
+        <v>15.17173119454138</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.37636133778449</v>
       </c>
       <c r="M7">
-        <v>15.22092876944621</v>
+        <v>9.193487312087854</v>
       </c>
       <c r="N7">
-        <v>6.000983382732048</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>13.19834731560821</v>
+        <v>15.08149288209199</v>
       </c>
       <c r="P7">
-        <v>12.79555038621213</v>
+        <v>6.133778933366749</v>
       </c>
       <c r="Q7">
-        <v>14.36275884288514</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.94408532462884</v>
+      </c>
+      <c r="R7">
+        <v>12.82727737572391</v>
+      </c>
+      <c r="S7">
+        <v>13.9741069721441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.479500711426674</v>
+        <v>8.384329461236256</v>
       </c>
       <c r="D8">
-        <v>4.943292181943539</v>
+        <v>5.040637589431387</v>
       </c>
       <c r="E8">
-        <v>9.660556568789872</v>
+        <v>9.399581911507374</v>
       </c>
       <c r="F8">
-        <v>17.86957785090815</v>
+        <v>17.25993364558453</v>
       </c>
       <c r="G8">
-        <v>22.3618755597365</v>
+        <v>20.99031703780642</v>
       </c>
       <c r="H8">
-        <v>1.801617312858967</v>
+        <v>1.773738840670079</v>
       </c>
       <c r="I8">
-        <v>2.725452141765214</v>
+        <v>2.772385165350038</v>
       </c>
       <c r="J8">
-        <v>8.888936574497102</v>
+        <v>9.058958366649932</v>
       </c>
       <c r="K8">
-        <v>16.08928758926006</v>
+        <v>15.33725941493436</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.31247859065879</v>
       </c>
       <c r="M8">
-        <v>16.58982747376306</v>
+        <v>9.508412656580759</v>
       </c>
       <c r="N8">
-        <v>6.077780953062504</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>14.18352452285837</v>
+        <v>16.39701464467855</v>
       </c>
       <c r="P8">
-        <v>12.77044986034887</v>
+        <v>6.206554489849758</v>
       </c>
       <c r="Q8">
-        <v>14.51245970123881</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.88348884547538</v>
+      </c>
+      <c r="R8">
+        <v>12.83560372263496</v>
+      </c>
+      <c r="S8">
+        <v>14.04768683286589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.27643315270196</v>
+        <v>8.971991124370188</v>
       </c>
       <c r="D9">
-        <v>5.393524754698711</v>
+        <v>5.542680860236807</v>
       </c>
       <c r="E9">
-        <v>10.22121230066757</v>
+        <v>9.884027321076397</v>
       </c>
       <c r="F9">
-        <v>18.93108204154803</v>
+        <v>18.15053987371499</v>
       </c>
       <c r="G9">
-        <v>23.77269115983504</v>
+        <v>22.17129691754247</v>
       </c>
       <c r="H9">
-        <v>1.75077841916737</v>
+        <v>1.742726866944513</v>
       </c>
       <c r="I9">
-        <v>3.089723069456348</v>
+        <v>3.091657438816765</v>
       </c>
       <c r="J9">
-        <v>8.933913994266064</v>
+        <v>9.089899203951976</v>
       </c>
       <c r="K9">
-        <v>16.66079553540514</v>
+        <v>15.72668589955722</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.22056313608777</v>
       </c>
       <c r="M9">
-        <v>18.98262525168047</v>
+        <v>10.29107188400776</v>
       </c>
       <c r="N9">
-        <v>6.222584585572473</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>15.94383563933566</v>
+        <v>18.71381913289849</v>
       </c>
       <c r="P9">
-        <v>12.73848381331645</v>
+        <v>6.347117976946648</v>
       </c>
       <c r="Q9">
-        <v>14.87018102183221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.5672731942663</v>
+      </c>
+      <c r="R9">
+        <v>12.86494798753111</v>
+      </c>
+      <c r="S9">
+        <v>14.27938272400386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.70918581738278</v>
+        <v>9.291027045044519</v>
       </c>
       <c r="D10">
-        <v>5.718187910669148</v>
+        <v>5.913281715609898</v>
       </c>
       <c r="E10">
-        <v>10.46612766403594</v>
+        <v>10.08726630248234</v>
       </c>
       <c r="F10">
-        <v>19.62612713635504</v>
+        <v>18.66964998187493</v>
       </c>
       <c r="G10">
-        <v>24.65249930170274</v>
+        <v>23.37177819861817</v>
       </c>
       <c r="H10">
-        <v>2.035574955788849</v>
+        <v>2.001743443108026</v>
       </c>
       <c r="I10">
-        <v>3.338185205717102</v>
+        <v>3.308523296044604</v>
       </c>
       <c r="J10">
-        <v>8.954088184350576</v>
+        <v>8.902666411448212</v>
       </c>
       <c r="K10">
-        <v>16.99173360969925</v>
+        <v>15.89701798935421</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.06215231721496</v>
       </c>
       <c r="M10">
-        <v>20.53399095292071</v>
+        <v>10.82096696285045</v>
       </c>
       <c r="N10">
-        <v>6.265371363066683</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>17.00303348493523</v>
+        <v>20.19422089101342</v>
       </c>
       <c r="P10">
-        <v>12.74939402361928</v>
+        <v>6.384010475761297</v>
       </c>
       <c r="Q10">
-        <v>15.08850331998687</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.56705892027624</v>
+      </c>
+      <c r="R10">
+        <v>12.93273763379615</v>
+      </c>
+      <c r="S10">
+        <v>14.36419843521001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.15057935359855</v>
+        <v>8.855346339626697</v>
       </c>
       <c r="D11">
-        <v>6.007038505536063</v>
+        <v>6.234926892008379</v>
       </c>
       <c r="E11">
-        <v>9.458233110249937</v>
+        <v>9.133218310068585</v>
       </c>
       <c r="F11">
-        <v>19.20983963860647</v>
+        <v>18.14061613913926</v>
       </c>
       <c r="G11">
-        <v>23.74603262891466</v>
+        <v>23.50485685867986</v>
       </c>
       <c r="H11">
-        <v>2.901958241011877</v>
+        <v>2.87214123212021</v>
       </c>
       <c r="I11">
-        <v>3.407266218027972</v>
+        <v>3.368388827593116</v>
       </c>
       <c r="J11">
-        <v>8.742109675527141</v>
+        <v>8.354291733907505</v>
       </c>
       <c r="K11">
-        <v>16.40067108546149</v>
+        <v>15.27175339420917</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.51003319841223</v>
       </c>
       <c r="M11">
-        <v>21.03939859069705</v>
+        <v>10.47713450125553</v>
       </c>
       <c r="N11">
-        <v>5.832106441271563</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>16.50576003533423</v>
+        <v>20.65119861387256</v>
       </c>
       <c r="P11">
-        <v>12.93112696991138</v>
+        <v>5.909061779455318</v>
       </c>
       <c r="Q11">
-        <v>14.63021689044532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>16.05724771149912</v>
+      </c>
+      <c r="R11">
+        <v>13.15943539276264</v>
+      </c>
+      <c r="S11">
+        <v>13.83261229828197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.643176426172955</v>
+        <v>8.467370825350121</v>
       </c>
       <c r="D12">
-        <v>6.182138515789227</v>
+        <v>6.420629690240504</v>
       </c>
       <c r="E12">
-        <v>8.710009145394187</v>
+        <v>8.442795577132939</v>
       </c>
       <c r="F12">
-        <v>18.72538403153742</v>
+        <v>17.63576800032565</v>
       </c>
       <c r="G12">
-        <v>22.82290046577528</v>
+        <v>23.10866930944221</v>
       </c>
       <c r="H12">
-        <v>4.16241044942375</v>
+        <v>4.141255163670382</v>
       </c>
       <c r="I12">
-        <v>3.414803761626491</v>
+        <v>3.373743240776629</v>
       </c>
       <c r="J12">
-        <v>8.563062267938129</v>
+        <v>8.075410668226143</v>
       </c>
       <c r="K12">
-        <v>15.85612072583856</v>
+        <v>14.75741388646829</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.1219435646695</v>
       </c>
       <c r="M12">
-        <v>21.159742611489</v>
+        <v>10.10622773705262</v>
       </c>
       <c r="N12">
-        <v>5.591241728437931</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>15.86977102304231</v>
+        <v>20.75914405757916</v>
       </c>
       <c r="P12">
-        <v>13.08741022356008</v>
+        <v>5.630329125062269</v>
       </c>
       <c r="Q12">
-        <v>14.20819809420708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.42968835343931</v>
+      </c>
+      <c r="R12">
+        <v>13.33439265866188</v>
+      </c>
+      <c r="S12">
+        <v>13.40730178513733</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.09855590942076</v>
+        <v>8.047578446279248</v>
       </c>
       <c r="D13">
-        <v>6.288777108634251</v>
+        <v>6.515687847336073</v>
       </c>
       <c r="E13">
-        <v>8.137660568662461</v>
+        <v>7.936115587837758</v>
       </c>
       <c r="F13">
-        <v>18.1213131616036</v>
+        <v>17.10849825030609</v>
       </c>
       <c r="G13">
-        <v>21.76365755239557</v>
+        <v>22.00961067352844</v>
       </c>
       <c r="H13">
-        <v>5.489476880490017</v>
+        <v>5.475551238599397</v>
       </c>
       <c r="I13">
-        <v>3.378273185650857</v>
+        <v>3.342561709961327</v>
       </c>
       <c r="J13">
-        <v>8.389781494451181</v>
+        <v>8.002438231923328</v>
       </c>
       <c r="K13">
-        <v>15.27901834073476</v>
+        <v>14.2779594195675</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.81380474408842</v>
       </c>
       <c r="M13">
-        <v>20.98652233382873</v>
+        <v>9.678249141844054</v>
       </c>
       <c r="N13">
-        <v>5.500322961991764</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>15.05815377888655</v>
+        <v>20.61043795747381</v>
       </c>
       <c r="P13">
-        <v>13.23367769860872</v>
+        <v>5.506407815535251</v>
       </c>
       <c r="Q13">
-        <v>13.76413090096466</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.64786755546231</v>
+      </c>
+      <c r="R13">
+        <v>13.47308856657732</v>
+      </c>
+      <c r="S13">
+        <v>13.03305575914225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.695889995788823</v>
+        <v>7.737761386707978</v>
       </c>
       <c r="D14">
-        <v>6.334626021159728</v>
+        <v>6.543245305058629</v>
       </c>
       <c r="E14">
-        <v>7.862807667889749</v>
+        <v>7.712040894296981</v>
       </c>
       <c r="F14">
-        <v>17.63513857452332</v>
+        <v>16.71912518344965</v>
       </c>
       <c r="G14">
-        <v>20.94504839492849</v>
+        <v>20.91731705460253</v>
       </c>
       <c r="H14">
-        <v>6.440872178981924</v>
+        <v>6.447755442231551</v>
       </c>
       <c r="I14">
-        <v>3.333733998546076</v>
+        <v>3.305453233335782</v>
       </c>
       <c r="J14">
-        <v>8.270253675880815</v>
+        <v>8.029325957533471</v>
       </c>
       <c r="K14">
-        <v>14.85518895344633</v>
+        <v>13.95133164578508</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.6263283151893</v>
       </c>
       <c r="M14">
-        <v>20.72839541824036</v>
+        <v>9.348321047309822</v>
       </c>
       <c r="N14">
-        <v>5.527765609314038</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>14.3974522997892</v>
+        <v>20.3861197995309</v>
       </c>
       <c r="P14">
-        <v>13.3322249729274</v>
+        <v>5.515174641082382</v>
       </c>
       <c r="Q14">
-        <v>13.43979254248092</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.01775792471888</v>
+      </c>
+      <c r="R14">
+        <v>13.55405752480932</v>
+      </c>
+      <c r="S14">
+        <v>12.78864189437732</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.579739884473913</v>
+        <v>7.647031118869202</v>
       </c>
       <c r="D15">
-        <v>6.332339355549683</v>
+        <v>6.532102872880157</v>
       </c>
       <c r="E15">
-        <v>7.812882749836808</v>
+        <v>7.675624436958028</v>
       </c>
       <c r="F15">
-        <v>17.4856263974521</v>
+        <v>16.61170796357622</v>
       </c>
       <c r="G15">
-        <v>20.70655673893046</v>
+        <v>20.508683258321</v>
       </c>
       <c r="H15">
-        <v>6.679298826727398</v>
+        <v>6.685477424142955</v>
       </c>
       <c r="I15">
-        <v>3.314002819803312</v>
+        <v>3.289662544418976</v>
       </c>
       <c r="J15">
-        <v>8.241255706243232</v>
+        <v>8.069299167572723</v>
       </c>
       <c r="K15">
-        <v>14.73917912988619</v>
+        <v>13.87139676760158</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.5896941335986</v>
       </c>
       <c r="M15">
-        <v>20.59926573538404</v>
+        <v>9.251024338608266</v>
       </c>
       <c r="N15">
-        <v>5.545476842636499</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>14.19467469958202</v>
+        <v>20.27254081261576</v>
       </c>
       <c r="P15">
-        <v>13.35376261570963</v>
+        <v>5.530167772630345</v>
       </c>
       <c r="Q15">
-        <v>13.35282821163247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.82666474575625</v>
+      </c>
+      <c r="R15">
+        <v>13.56611238573051</v>
+      </c>
+      <c r="S15">
+        <v>12.73436452743103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.473039072030353</v>
+        <v>7.550894117658186</v>
       </c>
       <c r="D16">
-        <v>6.183950368161137</v>
+        <v>6.34631556979793</v>
       </c>
       <c r="E16">
-        <v>7.806785027609177</v>
+        <v>7.67420285030204</v>
       </c>
       <c r="F16">
-        <v>17.27407540815122</v>
+        <v>16.5542788048407</v>
       </c>
       <c r="G16">
-        <v>20.48085022112591</v>
+        <v>19.44506458260807</v>
       </c>
       <c r="H16">
-        <v>6.462522010626221</v>
+        <v>6.466592787448672</v>
       </c>
       <c r="I16">
-        <v>3.216970051937703</v>
+        <v>3.208653117029549</v>
       </c>
       <c r="J16">
-        <v>8.263458159378047</v>
+        <v>8.382588507088752</v>
       </c>
       <c r="K16">
-        <v>14.69374278478848</v>
+        <v>13.92718703436411</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.71622891881857</v>
       </c>
       <c r="M16">
-        <v>19.9853860985612</v>
+        <v>9.145486232161455</v>
       </c>
       <c r="N16">
-        <v>5.53885807753772</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>13.85993442869281</v>
+        <v>19.72074890809945</v>
       </c>
       <c r="P16">
-        <v>13.30958184252048</v>
+        <v>5.537493197202738</v>
       </c>
       <c r="Q16">
-        <v>13.33326394664795</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.5278600903533</v>
+      </c>
+      <c r="R16">
+        <v>13.47786565964894</v>
+      </c>
+      <c r="S16">
+        <v>12.8238278543013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.604744145529649</v>
+        <v>7.641899778595723</v>
       </c>
       <c r="D17">
-        <v>6.042832044964075</v>
+        <v>6.190099067398374</v>
       </c>
       <c r="E17">
-        <v>7.924512938794479</v>
+        <v>7.7666946429595</v>
       </c>
       <c r="F17">
-        <v>17.37771026096081</v>
+        <v>16.70821714919741</v>
       </c>
       <c r="G17">
-        <v>20.75487160130495</v>
+        <v>19.34575744856369</v>
       </c>
       <c r="H17">
-        <v>5.712775123179493</v>
+        <v>5.71594857132084</v>
       </c>
       <c r="I17">
-        <v>3.166159918615365</v>
+        <v>3.165821524270932</v>
       </c>
       <c r="J17">
-        <v>8.344250588997179</v>
+        <v>8.58471514399557</v>
       </c>
       <c r="K17">
-        <v>14.88550612410438</v>
+        <v>14.13721200501727</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.91472230109793</v>
       </c>
       <c r="M17">
-        <v>19.64769976944897</v>
+        <v>9.233158808091751</v>
       </c>
       <c r="N17">
-        <v>5.506405060453303</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>13.96664140453028</v>
+        <v>19.40630211335118</v>
       </c>
       <c r="P17">
-        <v>13.22485345573006</v>
+        <v>5.524468600620145</v>
       </c>
       <c r="Q17">
-        <v>13.49257761580873</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.64293545815731</v>
+      </c>
+      <c r="R17">
+        <v>13.37333326465953</v>
+      </c>
+      <c r="S17">
+        <v>13.01394717791175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.99116476237557</v>
+        <v>7.934059818591824</v>
       </c>
       <c r="D18">
-        <v>5.891256868639541</v>
+        <v>6.03603669223859</v>
       </c>
       <c r="E18">
-        <v>8.286651149299541</v>
+        <v>8.076268616888958</v>
       </c>
       <c r="F18">
-        <v>17.77364134503161</v>
+        <v>17.0939777474964</v>
       </c>
       <c r="G18">
-        <v>21.50869659728908</v>
+        <v>19.89900506003902</v>
       </c>
       <c r="H18">
-        <v>4.434761341032416</v>
+        <v>4.43836052213303</v>
       </c>
       <c r="I18">
-        <v>3.148749703981236</v>
+        <v>3.149499023698946</v>
       </c>
       <c r="J18">
-        <v>8.487409842959448</v>
+        <v>8.764918174832054</v>
       </c>
       <c r="K18">
-        <v>15.31865495763067</v>
+        <v>14.53290817550118</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.22237194802545</v>
       </c>
       <c r="M18">
-        <v>19.5243106356369</v>
+        <v>9.514429623156115</v>
       </c>
       <c r="N18">
-        <v>5.52824878016126</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>14.47528976057437</v>
+        <v>19.28330298614052</v>
       </c>
       <c r="P18">
-        <v>13.09606888618347</v>
+        <v>5.573739116145409</v>
       </c>
       <c r="Q18">
-        <v>13.83121312796735</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.14086861616603</v>
+      </c>
+      <c r="R18">
+        <v>13.23736471899882</v>
+      </c>
+      <c r="S18">
+        <v>13.33708263310747</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.52795412465437</v>
+        <v>8.347863892414974</v>
       </c>
       <c r="D19">
-        <v>5.752450424600643</v>
+        <v>5.902685015898064</v>
       </c>
       <c r="E19">
-        <v>8.964486077874462</v>
+        <v>8.689202287796022</v>
       </c>
       <c r="F19">
-        <v>18.33529549542981</v>
+        <v>17.60844944690289</v>
       </c>
       <c r="G19">
-        <v>22.52512568869538</v>
+        <v>20.79448738589065</v>
       </c>
       <c r="H19">
-        <v>3.010900617196831</v>
+        <v>3.003536565824254</v>
       </c>
       <c r="I19">
-        <v>3.169151623256036</v>
+        <v>3.167736302360121</v>
       </c>
       <c r="J19">
-        <v>8.660944364031876</v>
+        <v>8.929202926516238</v>
       </c>
       <c r="K19">
-        <v>15.88048316562478</v>
+        <v>15.02293091861821</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.57845835485522</v>
       </c>
       <c r="M19">
-        <v>19.57338375979257</v>
+        <v>9.905298758416038</v>
       </c>
       <c r="N19">
-        <v>5.706098138387905</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>15.24377098553301</v>
+        <v>19.31822686262582</v>
       </c>
       <c r="P19">
-        <v>12.95296943391772</v>
+        <v>5.784099773186901</v>
       </c>
       <c r="Q19">
-        <v>14.26416510441925</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.88612519453461</v>
+      </c>
+      <c r="R19">
+        <v>13.09490238472777</v>
+      </c>
+      <c r="S19">
+        <v>13.7264900265066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.51352207054724</v>
+        <v>9.124732638780285</v>
       </c>
       <c r="D20">
-        <v>5.64609632686064</v>
+        <v>5.821985818963542</v>
       </c>
       <c r="E20">
-        <v>10.37535200946762</v>
+        <v>10.00572151545824</v>
       </c>
       <c r="F20">
-        <v>19.38557315250009</v>
+        <v>18.51381160489106</v>
       </c>
       <c r="G20">
-        <v>24.31777665258318</v>
+        <v>22.66779128960151</v>
       </c>
       <c r="H20">
-        <v>1.956923662734973</v>
+        <v>1.931168144140898</v>
       </c>
       <c r="I20">
-        <v>3.28098197589171</v>
+        <v>3.26423088270364</v>
       </c>
       <c r="J20">
-        <v>8.930304644861126</v>
+        <v>9.0536101521263</v>
       </c>
       <c r="K20">
-        <v>16.8385209997497</v>
+        <v>15.8123639252814</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.07548782480605</v>
       </c>
       <c r="M20">
-        <v>20.11941090745517</v>
+        <v>10.64682335844419</v>
       </c>
       <c r="N20">
-        <v>6.256299763221287</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>16.70142239597638</v>
+        <v>19.81271659013488</v>
       </c>
       <c r="P20">
-        <v>12.75588495742933</v>
+        <v>6.377125704277031</v>
       </c>
       <c r="Q20">
-        <v>14.98543676927647</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.28764466699398</v>
+      </c>
+      <c r="R20">
+        <v>12.91795932588848</v>
+      </c>
+      <c r="S20">
+        <v>14.32643305960858</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.97695404874118</v>
+        <v>9.519243472550283</v>
       </c>
       <c r="D21">
-        <v>5.85947679422658</v>
+        <v>6.10985140009973</v>
       </c>
       <c r="E21">
-        <v>10.77516119425972</v>
+        <v>10.37832756623267</v>
       </c>
       <c r="F21">
-        <v>20.05826828798503</v>
+        <v>18.84574350474279</v>
       </c>
       <c r="G21">
-        <v>25.24170263594073</v>
+        <v>25.31669540144359</v>
       </c>
       <c r="H21">
-        <v>2.18425972923807</v>
+        <v>2.131934366214679</v>
       </c>
       <c r="I21">
-        <v>3.474035235294763</v>
+        <v>3.425650582314824</v>
       </c>
       <c r="J21">
-        <v>8.992638167998326</v>
+        <v>8.373845623243268</v>
       </c>
       <c r="K21">
-        <v>17.23478807660251</v>
+        <v>15.94747459064001</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.95856902464686</v>
       </c>
       <c r="M21">
-        <v>21.28384290456353</v>
+        <v>11.06543996538639</v>
       </c>
       <c r="N21">
-        <v>6.384915500359514</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>17.65236236097245</v>
+        <v>20.84697223462291</v>
       </c>
       <c r="P21">
-        <v>12.73926910155775</v>
+        <v>6.505660554902327</v>
       </c>
       <c r="Q21">
-        <v>15.26684030917115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.15558130996959</v>
+      </c>
+      <c r="R21">
+        <v>12.98198739475199</v>
+      </c>
+      <c r="S21">
+        <v>14.34474717353073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.25813493655181</v>
+        <v>9.767080895691942</v>
       </c>
       <c r="D22">
-        <v>5.998469771456185</v>
+        <v>6.298317202705812</v>
       </c>
       <c r="E22">
-        <v>10.96890723152299</v>
+        <v>10.56027914789164</v>
       </c>
       <c r="F22">
-        <v>20.47661990948162</v>
+        <v>19.03315453061746</v>
       </c>
       <c r="G22">
-        <v>25.80737198138304</v>
+        <v>27.1202410009909</v>
       </c>
       <c r="H22">
-        <v>2.325742307232013</v>
+        <v>2.256702296692302</v>
       </c>
       <c r="I22">
-        <v>3.592136710612</v>
+        <v>3.522587772316107</v>
       </c>
       <c r="J22">
-        <v>9.030379754444853</v>
+        <v>7.950235376843313</v>
       </c>
       <c r="K22">
-        <v>17.47675925659317</v>
+        <v>16.01390454043611</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.86739732890464</v>
       </c>
       <c r="M22">
-        <v>22.00914699354835</v>
+        <v>11.3244514814749</v>
       </c>
       <c r="N22">
-        <v>6.434276773915022</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>18.20429779426028</v>
+        <v>21.48697085896559</v>
       </c>
       <c r="P22">
-        <v>12.73643144157299</v>
+        <v>6.553306421708791</v>
       </c>
       <c r="Q22">
-        <v>15.44001887884162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>17.6542962143947</v>
+      </c>
+      <c r="R22">
+        <v>13.03603112671983</v>
+      </c>
+      <c r="S22">
+        <v>14.33625570599122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.13884654858199</v>
+        <v>9.656593684454373</v>
       </c>
       <c r="D23">
-        <v>5.920837172308077</v>
+        <v>6.188902966263353</v>
       </c>
       <c r="E23">
-        <v>10.87389117160711</v>
+        <v>10.46894548669463</v>
       </c>
       <c r="F23">
-        <v>20.27318926934109</v>
+        <v>18.97948485015126</v>
       </c>
       <c r="G23">
-        <v>25.54087984477012</v>
+        <v>25.98432554962966</v>
       </c>
       <c r="H23">
-        <v>2.251694402089066</v>
+        <v>2.192184095760362</v>
       </c>
       <c r="I23">
-        <v>3.526558571291136</v>
+        <v>3.467656550431999</v>
       </c>
       <c r="J23">
-        <v>9.016126277547537</v>
+        <v>8.242326581574936</v>
       </c>
       <c r="K23">
-        <v>17.37075203003369</v>
+        <v>16.01712772091404</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.94221535475334</v>
       </c>
       <c r="M23">
-        <v>21.63181103047319</v>
+        <v>11.21837963581671</v>
       </c>
       <c r="N23">
-        <v>6.406012161707643</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>17.92110651023808</v>
+        <v>21.16487355885763</v>
       </c>
       <c r="P23">
-        <v>12.73389846197348</v>
+        <v>6.525997731946697</v>
       </c>
       <c r="Q23">
-        <v>15.36252202239016</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.4038568910092</v>
+      </c>
+      <c r="R23">
+        <v>12.99757378184044</v>
+      </c>
+      <c r="S23">
+        <v>14.37595043968715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.61980497436637</v>
+        <v>9.214821425849602</v>
       </c>
       <c r="D24">
-        <v>5.623376791069839</v>
+        <v>5.799093864040849</v>
       </c>
       <c r="E24">
-        <v>10.49182136347331</v>
+        <v>10.11664734530813</v>
       </c>
       <c r="F24">
-        <v>19.47098374813246</v>
+        <v>18.59597004116989</v>
       </c>
       <c r="G24">
-        <v>24.47508270609746</v>
+        <v>22.80195495399689</v>
       </c>
       <c r="H24">
-        <v>1.962925202261594</v>
+        <v>1.936835164293651</v>
       </c>
       <c r="I24">
-        <v>3.277190374933434</v>
+        <v>3.258130749137174</v>
       </c>
       <c r="J24">
-        <v>8.958517656244117</v>
+        <v>9.084619417189614</v>
       </c>
       <c r="K24">
-        <v>16.93371169170208</v>
+        <v>15.89995965017959</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.14090617115087</v>
       </c>
       <c r="M24">
-        <v>20.12500991279623</v>
+        <v>10.71417165665893</v>
       </c>
       <c r="N24">
-        <v>6.301345253795822</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>16.78856385642562</v>
+        <v>19.81755003646532</v>
       </c>
       <c r="P24">
-        <v>12.73620745116742</v>
+        <v>6.425004102903199</v>
       </c>
       <c r="Q24">
-        <v>15.05447579437173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.37282351349933</v>
+      </c>
+      <c r="R24">
+        <v>12.897214767096</v>
+      </c>
+      <c r="S24">
+        <v>14.39163796231147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.02058963771869</v>
+        <v>8.772155908478627</v>
       </c>
       <c r="D25">
-        <v>5.282303250294403</v>
+        <v>5.414986600017079</v>
       </c>
       <c r="E25">
-        <v>10.0607162854038</v>
+        <v>9.743108239804497</v>
       </c>
       <c r="F25">
-        <v>18.60997421551975</v>
+        <v>17.89155957625976</v>
       </c>
       <c r="G25">
-        <v>23.33133249329913</v>
+        <v>21.67179375089497</v>
       </c>
       <c r="H25">
-        <v>1.637180342247176</v>
+        <v>1.639080170716302</v>
       </c>
       <c r="I25">
-        <v>2.997550655278291</v>
+        <v>3.013652437542521</v>
       </c>
       <c r="J25">
-        <v>8.909651515955936</v>
+        <v>9.120352424672049</v>
       </c>
       <c r="K25">
-        <v>16.46831153460329</v>
+        <v>15.59491860128952</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.22771291847328</v>
       </c>
       <c r="M25">
-        <v>18.35624780682265</v>
+        <v>10.04779572345508</v>
       </c>
       <c r="N25">
-        <v>6.186711109359526</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>15.47238707792752</v>
+        <v>18.11344057800171</v>
       </c>
       <c r="P25">
-        <v>12.75003704763572</v>
+        <v>6.312494524971844</v>
       </c>
       <c r="Q25">
-        <v>14.74469878697785</v>
+        <v>15.11883336152166</v>
+      </c>
+      <c r="R25">
+        <v>12.85748706544364</v>
+      </c>
+      <c r="S25">
+        <v>14.2008512500708</v>
       </c>
     </row>
   </sheetData>
